--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -1,29 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shailendra.rajawat\git\iotronApex5\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097EF05F-8C95-414D-B114-F9BC7A097B20}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6FF674-4759-4960-8975-3AA94DB8B8B7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="12825" tabRatio="988" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="12825" tabRatio="988" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UAT" sheetId="1" r:id="rId1"/>
     <sheet name="FDEVAPEX5" sheetId="2" r:id="rId2"/>
-    <sheet name="PREPROD" sheetId="3" r:id="rId3"/>
-    <sheet name="FUATAPEX5" sheetId="4" r:id="rId4"/>
-    <sheet name="DEMO5" sheetId="5" r:id="rId5"/>
-    <sheet name="emailCred" sheetId="6" r:id="rId6"/>
-    <sheet name="ForecastReportPerAgreement" sheetId="7" r:id="rId7"/>
-    <sheet name="MaintainIOTRONPersonalFav" sheetId="8" r:id="rId8"/>
-    <sheet name="UI_CreateEditIOTDisAg" sheetId="9" r:id="rId9"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId10"/>
+    <sheet name="DATABASE" sheetId="12" r:id="rId3"/>
+    <sheet name="PREPROD" sheetId="3" r:id="rId4"/>
+    <sheet name="FUATAPEX5" sheetId="4" r:id="rId5"/>
+    <sheet name="PROD" sheetId="13" r:id="rId6"/>
+    <sheet name="Qlik" sheetId="11" r:id="rId7"/>
+    <sheet name="DEMO5" sheetId="5" r:id="rId8"/>
+    <sheet name="emailCred" sheetId="6" r:id="rId9"/>
+    <sheet name="ForecastReportPerAgreement" sheetId="7" r:id="rId10"/>
+    <sheet name="MaintainIOTRONPersonalFav" sheetId="8" r:id="rId11"/>
+    <sheet name="UI_CreateEditIOTDisAg" sheetId="9" r:id="rId12"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId13"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">FUATAPEX5!$A$1:$K$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">PREPROD!$A$1:$K$66</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1886" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="675">
   <si>
     <t>url</t>
   </si>
@@ -758,15 +765,9 @@
 I know that is a lot, but we can plan it if we will have time</t>
   </si>
   <si>
-    <t>GBROR</t>
-  </si>
-  <si>
     <t xml:space="preserve">Session info: headless chrome=66.0.3359.181) (Driver info: chromedriver=2.37.544315 </t>
   </si>
   <si>
-    <t>SHAILENDRA.RAJAWAT_AUSTA1</t>
-  </si>
-  <si>
     <t>HKGTC-S</t>
   </si>
   <si>
@@ -1400,36 +1401,6 @@
     <t>KPN_Op4_T10_NGC</t>
   </si>
   <si>
-    <t>SHAILENDRA.NGC.KPN_Op4_T01_NGC</t>
-  </si>
-  <si>
-    <t>SHAILENDRA.NGC.KPN_Op4_T02_NGC</t>
-  </si>
-  <si>
-    <t>SHAILENDRA.NGC.KPN_Op4_T03_NGC</t>
-  </si>
-  <si>
-    <t>SHAILENDRA.NGC.KPN_Op4_T04_NGC</t>
-  </si>
-  <si>
-    <t>SHAILENDRA.NGC.KPN_Op4_T05_NGC</t>
-  </si>
-  <si>
-    <t>SHAILENDRA.NGC.KPN_Op4_T06_NGC</t>
-  </si>
-  <si>
-    <t>SHAILENDRA.NGC.KPN_Op4_T07_NGC</t>
-  </si>
-  <si>
-    <t>SHAILENDRA.NGC.KPN_Op4_T08_NGC</t>
-  </si>
-  <si>
-    <t>SHAILENDRA.NGC.KPN_Op4_T09_NGC</t>
-  </si>
-  <si>
-    <t>SHAILENDRA.NGC.KPN_Op4_T10_NGC</t>
-  </si>
-  <si>
     <t>OR_T13_NGC</t>
   </si>
   <si>
@@ -1478,42 +1449,6 @@
     <t>T11_HKT_Alerts_7465_NGC</t>
   </si>
   <si>
-    <t>SHAILENDRA.T01_HKT_Alerts_7465</t>
-  </si>
-  <si>
-    <t>SHAILENDRA.T02_HKT_Alerts_7465</t>
-  </si>
-  <si>
-    <t>SHAILENDRA.T03_HKT_Alerts_7465</t>
-  </si>
-  <si>
-    <t>SHAILENDRA.T04_HKT_Alerts_7465</t>
-  </si>
-  <si>
-    <t>SHAILENDRA.T05_HKT_Alerts_7465</t>
-  </si>
-  <si>
-    <t>SHAILENDRA.T06_HKT_Alerts_7465</t>
-  </si>
-  <si>
-    <t>SHAILENDRA.T07_HKT_Alerts_7465</t>
-  </si>
-  <si>
-    <t>SHAILENDRA.T08_HKT_Alerts_7465</t>
-  </si>
-  <si>
-    <t>SHAILENDRA.T09_HKT_Alerts_7465</t>
-  </si>
-  <si>
-    <t>SHAILENDRA.T10_HKT_Alerts_7465</t>
-  </si>
-  <si>
-    <t>SHAILENDRA.T11_HKT_Alerts_7465</t>
-  </si>
-  <si>
-    <t>SHAILENDRA.T12_HKT_Alerts_7465</t>
-  </si>
-  <si>
     <t>TMO_T01_NGC</t>
   </si>
   <si>
@@ -1526,18 +1461,6 @@
     <t>TMO_T09_NGC</t>
   </si>
   <si>
-    <t>SHAILENDRA.TMO_T01_NGC</t>
-  </si>
-  <si>
-    <t>SHAILENDRA.TMO_T06_NGC</t>
-  </si>
-  <si>
-    <t>SHAILENDRA.TMO_T09_NGC</t>
-  </si>
-  <si>
-    <t>SHAILENDRA.TMO_T02_NGC</t>
-  </si>
-  <si>
     <t>T01_HKTCommitRep_7395_NGC</t>
   </si>
   <si>
@@ -1556,36 +1479,15 @@
     <t>T05_HKTCommitRep_7399_HKGTC</t>
   </si>
   <si>
-    <t>SSR.T01_HKTCommitRep_7395_NGC</t>
-  </si>
-  <si>
-    <t>SSR.T02_HKTCommitRep_7395_NGC</t>
-  </si>
-  <si>
-    <t>SSR.T04_HKTCommitRep_7399_NGC</t>
-  </si>
-  <si>
     <t>SSR.T06_HKTCommitRep_7400_NGC</t>
   </si>
   <si>
-    <t>SSR.T03_HKTCommitRep_7396_HKT</t>
-  </si>
-  <si>
-    <t>SSR.T05_HKTCommitRep_7399_HKT</t>
-  </si>
-  <si>
     <t>T02_HKTCommitRep_7395_HKGTC</t>
   </si>
   <si>
-    <t>SSR.T02_HKTCommitRep_7395_HKT</t>
-  </si>
-  <si>
     <t>T05_HKTCommitRep_7399_NGC</t>
   </si>
   <si>
-    <t>SSR.T05_HKTCommitRep_7399_NGC</t>
-  </si>
-  <si>
     <t>SHAILENDRA.AUSOP.OR_T02</t>
   </si>
   <si>
@@ -1598,129 +1500,9 @@
     <t>SHAILENDRA.AUSOP.OR_T14</t>
   </si>
   <si>
-    <t>Auto$080219133319</t>
-  </si>
-  <si>
-    <t>Auto$080219133338</t>
-  </si>
-  <si>
-    <t>Auto$080219133359</t>
-  </si>
-  <si>
-    <t>Auto$080219133419</t>
-  </si>
-  <si>
-    <t>Auto$080219133522</t>
-  </si>
-  <si>
-    <t>Auto$080219133545</t>
-  </si>
-  <si>
-    <t>Auto$080219133603</t>
-  </si>
-  <si>
-    <t>Auto$080219133700</t>
-  </si>
-  <si>
-    <t>Auto$080219133720</t>
-  </si>
-  <si>
-    <t>Auto$080219133812</t>
-  </si>
-  <si>
-    <t>Auto$080219134035</t>
-  </si>
-  <si>
-    <t>Auto$080219134141</t>
-  </si>
-  <si>
-    <t>Auto$080219134202</t>
-  </si>
-  <si>
-    <t>Auto$080219134256</t>
-  </si>
-  <si>
-    <t>Auto$080219134645</t>
-  </si>
-  <si>
-    <t>Auto$080219134726</t>
-  </si>
-  <si>
-    <t>Auto$080219134832</t>
-  </si>
-  <si>
-    <t>Auto$080219135001</t>
-  </si>
-  <si>
-    <t>Auto$080219135015</t>
-  </si>
-  <si>
-    <t>Auto$080219135042</t>
-  </si>
-  <si>
-    <t>Auto$080219135057</t>
-  </si>
-  <si>
-    <t>Auto$080219135111</t>
-  </si>
-  <si>
-    <t>Auto$080219135127</t>
-  </si>
-  <si>
-    <t>Auto$080219135300</t>
-  </si>
-  <si>
-    <t>Auto$080219135321</t>
-  </si>
-  <si>
-    <t>Auto$080219135341</t>
-  </si>
-  <si>
-    <t>Auto$080219135401</t>
-  </si>
-  <si>
-    <t>Auto$080219135439</t>
-  </si>
-  <si>
-    <t>Auto$080219135500</t>
-  </si>
-  <si>
-    <t>Auto$080219135955</t>
-  </si>
-  <si>
-    <t>Auto$080219140034</t>
-  </si>
-  <si>
-    <t>Auto$080219140053</t>
-  </si>
-  <si>
-    <t>Auto$080219140114</t>
-  </si>
-  <si>
-    <t>Auto$080219140237</t>
-  </si>
-  <si>
-    <t>Auto$080219140253</t>
-  </si>
-  <si>
-    <t>Auto$080219140657</t>
-  </si>
-  <si>
-    <t>Auto$080219140738</t>
-  </si>
-  <si>
     <t>Spidey@1990</t>
   </si>
   <si>
-    <t>shailendra.rajawat@nextgenclearing.com,prafull.barve@nextgenclearing.com,zeljko.pavisic@nextgenclearing.com,ivana.jandrecic@nextgenclearing.com</t>
-  </si>
-  <si>
-    <t>Auto$080219194021</t>
-  </si>
-  <si>
-    <t>Auto$080219200651</t>
-  </si>
-  <si>
     <t>SHAILENDRA.NGC.KPN_Op4_T01</t>
   </si>
   <si>
@@ -1823,9 +1605,6 @@
     <t>SSR.NGC.T06_HKTCommitRep_7400</t>
   </si>
   <si>
-    <t>Auto$120219112042</t>
-  </si>
-  <si>
     <t>IOTRON_ADMIN,IOTRON What-If,MANAGER,ACCOUNT MANAGER,OPERATIONS SUPPORT 2</t>
   </si>
   <si>
@@ -1841,9 +1620,6 @@
     <t>Auto$120219123407</t>
   </si>
   <si>
-    <t>Auto$120219123421</t>
-  </si>
-  <si>
     <t>Auto$120219123436</t>
   </si>
   <si>
@@ -2025,6 +1801,279 @@
   </si>
   <si>
     <t>Auto$040319195809</t>
+  </si>
+  <si>
+    <t>micky</t>
+  </si>
+  <si>
+    <t>NEXTGEN\micky.priya</t>
+  </si>
+  <si>
+    <t>Rudra_2806</t>
+  </si>
+  <si>
+    <t>ivana</t>
+  </si>
+  <si>
+    <t>NEXTGEN\ivana.jandrecic</t>
+  </si>
+  <si>
+    <t>https://insights.nextgenclearing.com</t>
+  </si>
+  <si>
+    <t>ssr</t>
+  </si>
+  <si>
+    <t>NEXTGEN\shailendra.rajawat</t>
+  </si>
+  <si>
+    <t>env</t>
+  </si>
+  <si>
+    <t>hostName</t>
+  </si>
+  <si>
+    <t>port</t>
+  </si>
+  <si>
+    <t>connectionName</t>
+  </si>
+  <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>FUATAPEX5</t>
+  </si>
+  <si>
+    <t>10.184.40.120</t>
+  </si>
+  <si>
+    <t>DEV_SR</t>
+  </si>
+  <si>
+    <t>Nkj45jgsD8</t>
+  </si>
+  <si>
+    <t>PREPROD</t>
+  </si>
+  <si>
+    <t>10.184.40.135</t>
+  </si>
+  <si>
+    <t>PPNGC</t>
+  </si>
+  <si>
+    <t>Njkg8jaJF3</t>
+  </si>
+  <si>
+    <t>UATNGC</t>
+  </si>
+  <si>
+    <t>Auto$120419115951</t>
+  </si>
+  <si>
+    <t>Auto$120419120000</t>
+  </si>
+  <si>
+    <t>Auto$120419120008</t>
+  </si>
+  <si>
+    <t>Auto$120419120017</t>
+  </si>
+  <si>
+    <t>Auto$120419120025</t>
+  </si>
+  <si>
+    <t>Auto$120419120034</t>
+  </si>
+  <si>
+    <t>Auto$120419120042</t>
+  </si>
+  <si>
+    <t>Auto$120419120050</t>
+  </si>
+  <si>
+    <t>Auto$120419120058</t>
+  </si>
+  <si>
+    <t>Auto$120419120105</t>
+  </si>
+  <si>
+    <t>Auto$120419120113</t>
+  </si>
+  <si>
+    <t>Auto$120419120121</t>
+  </si>
+  <si>
+    <t>Auto$120419120129</t>
+  </si>
+  <si>
+    <t>Auto$120419120139</t>
+  </si>
+  <si>
+    <t>Auto$120419120146</t>
+  </si>
+  <si>
+    <t>Auto$120419120156</t>
+  </si>
+  <si>
+    <t>Auto$120419120205</t>
+  </si>
+  <si>
+    <t>Auto$120419120214</t>
+  </si>
+  <si>
+    <t>Auto$120419120222</t>
+  </si>
+  <si>
+    <t>Auto$120419120230</t>
+  </si>
+  <si>
+    <t>Auto$120419120238</t>
+  </si>
+  <si>
+    <t>Auto$120419120246</t>
+  </si>
+  <si>
+    <t>Auto$120419120257</t>
+  </si>
+  <si>
+    <t>Auto$120419120305</t>
+  </si>
+  <si>
+    <t>Auto$120419120314</t>
+  </si>
+  <si>
+    <t>Auto$120419120322</t>
+  </si>
+  <si>
+    <t>Auto$120419120330</t>
+  </si>
+  <si>
+    <t>Auto$120419120339</t>
+  </si>
+  <si>
+    <t>Auto$120419120347</t>
+  </si>
+  <si>
+    <t>Auto$120419120355</t>
+  </si>
+  <si>
+    <t>Auto$120419120403</t>
+  </si>
+  <si>
+    <t>Auto$120419120411</t>
+  </si>
+  <si>
+    <t>Auto$120419120420</t>
+  </si>
+  <si>
+    <t>Auto$120419120428</t>
+  </si>
+  <si>
+    <t>Auto$120419120436</t>
+  </si>
+  <si>
+    <t>Auto$120419120444</t>
+  </si>
+  <si>
+    <t>Auto$120419120452</t>
+  </si>
+  <si>
+    <t>Auto$120419120500</t>
+  </si>
+  <si>
+    <t>Auto$120419120509</t>
+  </si>
+  <si>
+    <t>Auto$120419120517</t>
+  </si>
+  <si>
+    <t>Auto$120419120525</t>
+  </si>
+  <si>
+    <t>Auto$120419120533</t>
+  </si>
+  <si>
+    <t>Auto$120419120541</t>
+  </si>
+  <si>
+    <t>Auto$120419120551</t>
+  </si>
+  <si>
+    <t>Auto$120419120558</t>
+  </si>
+  <si>
+    <t>Auto$120419120609</t>
+  </si>
+  <si>
+    <t>Auto$120419120618</t>
+  </si>
+  <si>
+    <t>Auto$120419120630</t>
+  </si>
+  <si>
+    <t>Auto$120419120639</t>
+  </si>
+  <si>
+    <t>Auto$120419120647</t>
+  </si>
+  <si>
+    <t>Auto$120419120656</t>
+  </si>
+  <si>
+    <t>Auto$120419120703</t>
+  </si>
+  <si>
+    <t>Auto$120419120711</t>
+  </si>
+  <si>
+    <t>Auto$120419120721</t>
+  </si>
+  <si>
+    <t>Auto$120419120729</t>
+  </si>
+  <si>
+    <t>Auto$120419120737</t>
+  </si>
+  <si>
+    <t>Auto$120419120745</t>
+  </si>
+  <si>
+    <t>Auto$120419120753</t>
+  </si>
+  <si>
+    <t>Auto$120419120802</t>
+  </si>
+  <si>
+    <t>Auto$120419120811</t>
+  </si>
+  <si>
+    <t>Auto$120419120819</t>
+  </si>
+  <si>
+    <t>Auto$120419120828</t>
+  </si>
+  <si>
+    <t>Auto$120419120835</t>
+  </si>
+  <si>
+    <t>Auto$170419115557</t>
+  </si>
+  <si>
+    <t>shailendra.rajawat@nextgenclearing.com,prafull.barve@nextgenclearing.com,ivana.jandrecic@nextgenclearing.com,dario.curjak@nextgenclearing.com</t>
+  </si>
+  <si>
+    <t>micky.priya</t>
+  </si>
+  <si>
+    <t>NGC-M</t>
+  </si>
+  <si>
+    <t>Myra_290718</t>
+  </si>
+  <si>
+    <t>https://fch.nextgenclearing.com/pls/apex/f?p=10132:35:11449201093111::NO:::</t>
   </si>
 </sst>
 </file>
@@ -2034,7 +2083,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dddd&quot;, &quot;mmmm\ dd&quot;, &quot;yyyy"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2126,6 +2175,44 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color rgb="FF0563C1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2154,7 +2241,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2210,6 +2297,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4341,6 +4435,1315 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:AMK2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.28515625" style="21" collapsed="1"/>
+    <col min="2" max="2" width="35.85546875" style="21" collapsed="1"/>
+    <col min="3" max="3" width="19.5703125" style="21" collapsed="1"/>
+    <col min="4" max="4" width="11.5703125" style="21" collapsed="1"/>
+    <col min="5" max="5" width="10.42578125" style="21" collapsed="1"/>
+    <col min="6" max="6" width="16.7109375" style="21" collapsed="1"/>
+    <col min="7" max="7" width="8.42578125" collapsed="1"/>
+    <col min="8" max="8" width="5" collapsed="1"/>
+    <col min="9" max="9" width="8.42578125" collapsed="1"/>
+    <col min="10" max="10" width="5" collapsed="1"/>
+    <col min="11" max="13" width="8.42578125" collapsed="1"/>
+    <col min="14" max="14" width="9.5703125" collapsed="1"/>
+    <col min="15" max="20" width="8.42578125" collapsed="1"/>
+    <col min="21" max="21" width="21" collapsed="1"/>
+    <col min="22" max="1025" width="8.42578125" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F2" s="22">
+        <v>42036</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:AMK44"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.42578125" collapsed="1"/>
+    <col min="2" max="2" width="75.5703125" collapsed="1"/>
+    <col min="3" max="1025" width="8.42578125" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A3:AMK54"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="30.85546875" collapsed="1"/>
+    <col min="3" max="3" width="17.85546875" collapsed="1"/>
+    <col min="4" max="4" width="35.5703125" collapsed="1"/>
+    <col min="5" max="5" width="32.28515625" collapsed="1"/>
+    <col min="6" max="1025" width="8.42578125" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AMK28"/>
   <sheetViews>
@@ -4357,18 +5760,18 @@
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1"/>
       <c r="B1" s="23" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C2" s="23">
         <v>13</v>
@@ -4376,10 +5779,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C3" s="23">
         <v>1</v>
@@ -4388,7 +5791,7 @@
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4" s="23" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C4" s="23">
         <v>1</v>
@@ -4397,7 +5800,7 @@
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5" s="23" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C5" s="23">
         <v>1</v>
@@ -4406,7 +5809,7 @@
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6" s="23" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C6" s="23">
         <v>1</v>
@@ -4414,10 +5817,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C7" s="23">
         <v>1</v>
@@ -4426,7 +5829,7 @@
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="B8" s="23" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C8" s="23">
         <v>1</v>
@@ -4435,7 +5838,7 @@
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9"/>
       <c r="B9" s="23" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C9" s="23">
         <v>1</v>
@@ -4444,7 +5847,7 @@
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="B10" s="23" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C10" s="23">
         <v>1</v>
@@ -4453,7 +5856,7 @@
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11" s="23" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C11" s="23">
         <v>1</v>
@@ -4462,7 +5865,7 @@
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12" s="23" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C12" s="23">
         <v>1</v>
@@ -4471,7 +5874,7 @@
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13" s="23" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C13" s="23">
         <v>1</v>
@@ -4480,7 +5883,7 @@
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14" s="23" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C14" s="23">
         <v>1</v>
@@ -4489,7 +5892,7 @@
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15" s="23" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C15" s="23">
         <v>1</v>
@@ -4498,7 +5901,7 @@
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16" s="23" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C16" s="23">
         <v>1</v>
@@ -4506,10 +5909,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C17" s="23">
         <v>1</v>
@@ -4517,7 +5920,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" s="23" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C18" s="23">
         <v>1</v>
@@ -4525,7 +5928,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" s="23" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C19" s="23">
         <v>1</v>
@@ -4533,7 +5936,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" s="23" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C20" s="23">
         <v>1</v>
@@ -4541,7 +5944,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" s="23" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C21" s="23">
         <v>1</v>
@@ -4549,7 +5952,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" s="23" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C22" s="23">
         <v>1</v>
@@ -4557,7 +5960,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" s="23" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C23" s="23">
         <v>1</v>
@@ -4565,7 +5968,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" s="23" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C24" s="23">
         <v>1</v>
@@ -4573,7 +5976,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="23" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C25" s="23">
         <v>1</v>
@@ -4581,7 +5984,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="23" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C26" s="23">
         <v>1</v>
@@ -4589,7 +5992,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" s="23" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C27" s="23">
         <v>1</v>
@@ -4597,7 +6000,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" s="23" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C28" s="23">
         <v>1</v>
@@ -4614,7 +6017,7 @@
   <dimension ref="A1:AMK2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4697,11 +6100,92 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{048A7ED4-68D2-41A4-B325-2DB628335CC4}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C1" t="s">
+        <v>594</v>
+      </c>
+      <c r="D1" t="s">
+        <v>595</v>
+      </c>
+      <c r="E1" t="s">
+        <v>596</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B2" t="s">
+        <v>598</v>
+      </c>
+      <c r="C2">
+        <v>1521</v>
+      </c>
+      <c r="D2" t="s">
+        <v>605</v>
+      </c>
+      <c r="E2" t="s">
+        <v>599</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>601</v>
+      </c>
+      <c r="B3" t="s">
+        <v>602</v>
+      </c>
+      <c r="C3">
+        <v>1521</v>
+      </c>
+      <c r="D3" t="s">
+        <v>603</v>
+      </c>
+      <c r="E3" t="s">
+        <v>599</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>604</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AMK66"/>
+  <dimension ref="A1:AMK67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4720,2086 +6204,2166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="28" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>660</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="D2" s="29" t="s">
+        <v>583</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="33"/>
+      <c r="B3" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="D3" s="31" t="s">
+        <v>606</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>581</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="28" t="s">
+        <v>582</v>
+      </c>
+      <c r="K3" s="28" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="33"/>
+      <c r="B4" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>607</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K4" s="28"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="33"/>
+      <c r="B5" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>608</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="K5" s="28"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="33"/>
+      <c r="B6" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>609</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" s="28"/>
+    </row>
+    <row r="7" spans="1:14" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A7" s="28"/>
+      <c r="B7" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>610</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="K7" s="28"/>
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>611</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" s="28"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="33"/>
+      <c r="B9" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>612</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="K9" s="28" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>533</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J4" s="1" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="33"/>
+      <c r="B10" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>613</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>534</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="K10" s="28"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="33"/>
+      <c r="B11" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>614</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="K11" s="28" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="33"/>
+      <c r="B12" s="28" t="s">
+        <v>417</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>615</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="K12" s="28"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="33"/>
+      <c r="B13" s="28" t="s">
+        <v>426</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>479</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>616</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>531</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="K13" s="28"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="33"/>
+      <c r="B14" s="28" t="s">
+        <v>418</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>409</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>617</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="K14" s="28"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="33"/>
+      <c r="B15" s="28" t="s">
+        <v>427</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>480</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="E15" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J6" s="1" t="s">
+      <c r="F15" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>532</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="K15" s="1"/>
+      <c r="K15" s="28"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+      <c r="A16" s="33"/>
+      <c r="B16" s="28" t="s">
+        <v>419</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>619</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="K16" s="28"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="33"/>
+      <c r="B17" s="28" t="s">
+        <v>420</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>411</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>620</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="K17" s="28"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="33"/>
+      <c r="B18" s="28" t="s">
+        <v>421</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>621</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J18" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="K18" s="28"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="33"/>
+      <c r="B19" s="28" t="s">
+        <v>422</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>622</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J19" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="K19" s="28"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="33"/>
+      <c r="B20" s="28" t="s">
+        <v>423</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>414</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>623</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J20" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="K20" s="28"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="33"/>
+      <c r="B21" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>624</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="K21" s="28"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="33"/>
+      <c r="B22" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>451</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>625</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I22" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="K22" s="28"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="33"/>
+      <c r="B23" s="28" t="s">
         <v>429</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C23" s="28" t="s">
+        <v>482</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>626</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I23" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J23" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="K23" s="28"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="33"/>
+      <c r="B24" s="28" t="s">
+        <v>452</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>453</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>627</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I24" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J24" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="K24" s="28"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="33"/>
+      <c r="B25" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>628</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I25" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J25" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="K25" s="28"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="33"/>
+      <c r="B26" s="28" t="s">
+        <v>425</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>416</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>629</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I26" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J26" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="K26" s="28"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="33"/>
+      <c r="B27" s="28" t="s">
+        <v>430</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>630</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H27" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I27" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J27" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="K27" s="28"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="33"/>
+      <c r="B28" s="28" t="s">
+        <v>432</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>631</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H28" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I28" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J28" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="K28" s="28"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="33"/>
+      <c r="B29" s="28" t="s">
+        <v>433</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>437</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>632</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H29" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I29" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J29" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="K29" s="28"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="33"/>
+      <c r="B30" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>438</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>633</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H30" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I30" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J30" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="K30" s="28"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="33"/>
+      <c r="B31" s="28" t="s">
+        <v>435</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>634</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H31" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I31" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J31" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="K31" s="28"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="33"/>
+      <c r="B32" s="28" t="s">
+        <v>440</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>484</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>635</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H32" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I32" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J32" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="K32" s="28"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="33"/>
+      <c r="B33" s="28" t="s">
+        <v>441</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>485</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>636</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H33" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I33" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J33" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="K33" s="28"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="33"/>
+      <c r="B34" s="28" t="s">
+        <v>442</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>486</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>637</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G34" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H34" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I34" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J34" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="K34" s="28"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="33"/>
+      <c r="B35" s="28" t="s">
+        <v>443</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>638</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G35" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H35" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I35" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J35" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="K35" s="28"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="33"/>
+      <c r="B36" s="28" t="s">
+        <v>444</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>488</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>639</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F36" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G36" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H36" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I36" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J36" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="K36" s="28"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="33"/>
+      <c r="B37" s="28" t="s">
+        <v>445</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>489</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>640</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F37" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G37" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H37" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I37" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J37" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="K37" s="28"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="33"/>
+      <c r="B38" s="28" t="s">
+        <v>446</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>490</v>
+      </c>
+      <c r="D38" s="31" t="s">
+        <v>641</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G38" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H38" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I38" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J38" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="K38" s="28"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="33"/>
+      <c r="B39" s="28" t="s">
+        <v>447</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>491</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>642</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G39" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H39" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I39" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J39" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="K39" s="28"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="33"/>
+      <c r="B40" s="28" t="s">
+        <v>448</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>492</v>
+      </c>
+      <c r="D40" s="31" t="s">
+        <v>643</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F40" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G40" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H40" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I40" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J40" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="K40" s="28"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="33"/>
+      <c r="B41" s="28" t="s">
+        <v>449</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>493</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>644</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G41" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H41" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I41" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J41" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="K41" s="28"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="33"/>
+      <c r="B42" s="28" t="s">
+        <v>454</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>494</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>645</v>
+      </c>
+      <c r="E42" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G42" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H42" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I42" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J42" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="K42" s="28"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="33"/>
+      <c r="B43" s="28" t="s">
+        <v>457</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>495</v>
+      </c>
+      <c r="D43" s="31" t="s">
+        <v>646</v>
+      </c>
+      <c r="E43" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F43" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G43" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H43" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I43" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J43" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="K43" s="28"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="33"/>
+      <c r="B44" s="28" t="s">
+        <v>458</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>496</v>
+      </c>
+      <c r="D44" s="31" t="s">
+        <v>647</v>
+      </c>
+      <c r="E44" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F44" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G44" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H44" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I44" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J44" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="K44" s="28"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="33"/>
+      <c r="B45" s="28" t="s">
+        <v>459</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>497</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>648</v>
+      </c>
+      <c r="E45" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F45" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G45" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H45" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I45" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J45" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="K45" s="28"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="33"/>
+      <c r="B46" s="28" t="s">
+        <v>455</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>498</v>
+      </c>
+      <c r="D46" s="31" t="s">
+        <v>649</v>
+      </c>
+      <c r="E46" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="F46" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G46" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H46" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I46" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J46" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="K46" s="28" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="33"/>
+      <c r="B47" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>499</v>
+      </c>
+      <c r="D47" s="31" t="s">
+        <v>650</v>
+      </c>
+      <c r="E47" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F47" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G47" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H47" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I47" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J47" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="K47" s="28"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="33"/>
+      <c r="B48" s="28" t="s">
+        <v>461</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>500</v>
+      </c>
+      <c r="D48" s="31" t="s">
+        <v>651</v>
+      </c>
+      <c r="E48" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F48" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G48" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H48" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I48" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J48" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="K48" s="28"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="33"/>
+      <c r="B49" s="28" t="s">
+        <v>462</v>
+      </c>
+      <c r="C49" s="28" t="s">
+        <v>501</v>
+      </c>
+      <c r="D49" s="31" t="s">
+        <v>652</v>
+      </c>
+      <c r="E49" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F49" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G49" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H49" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I49" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J49" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="K49" s="28"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="33"/>
+      <c r="B50" s="28" t="s">
+        <v>463</v>
+      </c>
+      <c r="C50" s="28" t="s">
+        <v>502</v>
+      </c>
+      <c r="D50" s="31" t="s">
+        <v>653</v>
+      </c>
+      <c r="E50" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F50" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G50" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H50" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I50" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J50" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="K50" s="28"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="33"/>
+      <c r="B51" s="28" t="s">
+        <v>464</v>
+      </c>
+      <c r="C51" s="28" t="s">
+        <v>503</v>
+      </c>
+      <c r="D51" s="31" t="s">
+        <v>654</v>
+      </c>
+      <c r="E51" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F51" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G51" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H51" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I51" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J51" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="K51" s="28"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="33"/>
+      <c r="B52" s="28" t="s">
+        <v>465</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="D52" s="31" t="s">
+        <v>655</v>
+      </c>
+      <c r="E52" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F52" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G52" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H52" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I52" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J52" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="K52" s="28"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="33"/>
+      <c r="B53" s="28" t="s">
+        <v>456</v>
+      </c>
+      <c r="C53" s="28" t="s">
+        <v>505</v>
+      </c>
+      <c r="D53" s="31" t="s">
+        <v>656</v>
+      </c>
+      <c r="E53" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="F53" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G53" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H53" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I53" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J53" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="K53" s="28" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="33"/>
+      <c r="B54" s="28" t="s">
+        <v>466</v>
+      </c>
+      <c r="C54" s="28" t="s">
+        <v>506</v>
+      </c>
+      <c r="D54" s="31" t="s">
+        <v>657</v>
+      </c>
+      <c r="E54" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F54" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G54" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H54" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I54" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J54" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="K54" s="28"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="33"/>
+      <c r="B55" s="28" t="s">
+        <v>467</v>
+      </c>
+      <c r="C55" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="D55" s="31" t="s">
+        <v>658</v>
+      </c>
+      <c r="E55" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F55" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G55" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H55" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I55" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J55" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="K55" s="28"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="33"/>
+      <c r="B56" s="28" t="s">
+        <v>468</v>
+      </c>
+      <c r="C56" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="D56" s="31" t="s">
+        <v>659</v>
+      </c>
+      <c r="E56" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F56" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G56" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H56" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I56" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J56" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="K56" s="28"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="33"/>
+      <c r="B57" s="28" t="s">
+        <v>469</v>
+      </c>
+      <c r="C57" s="28" t="s">
+        <v>509</v>
+      </c>
+      <c r="D57" s="31" t="s">
+        <v>660</v>
+      </c>
+      <c r="E57" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F57" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G57" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H57" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I57" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J57" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="K57" s="28"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="33"/>
+      <c r="B58" s="28" t="s">
+        <v>470</v>
+      </c>
+      <c r="C58" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="D58" s="31" t="s">
+        <v>661</v>
+      </c>
+      <c r="E58" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F58" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G58" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H58" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I58" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J58" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="K58" s="28"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="33"/>
+      <c r="B59" s="28" t="s">
+        <v>471</v>
+      </c>
+      <c r="C59" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="D59" s="31" t="s">
+        <v>662</v>
+      </c>
+      <c r="E59" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F59" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G59" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H59" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I59" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J59" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="K59" s="28"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="33"/>
+      <c r="B60" s="28" t="s">
+        <v>477</v>
+      </c>
+      <c r="C60" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="D60" s="31" t="s">
+        <v>663</v>
+      </c>
+      <c r="E60" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="F60" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G60" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H60" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I60" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J60" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="K60" s="28" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="33"/>
+      <c r="B61" s="28" t="s">
+        <v>474</v>
+      </c>
+      <c r="C61" s="28" t="s">
+        <v>513</v>
+      </c>
+      <c r="D61" s="31" t="s">
+        <v>664</v>
+      </c>
+      <c r="E61" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="F61" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G61" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H61" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I61" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J61" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="K61" s="28" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="33"/>
+      <c r="B62" s="28" t="s">
+        <v>472</v>
+      </c>
+      <c r="C62" s="28" t="s">
+        <v>514</v>
+      </c>
+      <c r="D62" s="31" t="s">
+        <v>665</v>
+      </c>
+      <c r="E62" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F62" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G62" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H62" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I62" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J62" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="K62" s="28"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="33"/>
+      <c r="B63" s="28" t="s">
+        <v>475</v>
+      </c>
+      <c r="C63" s="28" t="s">
         <v>515</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>519</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>522</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>525</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="D63" s="31" t="s">
+        <v>666</v>
+      </c>
+      <c r="E63" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="F63" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G63" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H63" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I63" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J63" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="K63" s="28" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="33"/>
+      <c r="B64" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="C64" s="28" t="s">
         <v>516</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>527</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="D23" s="6" t="s">
+      <c r="D64" s="31" t="s">
+        <v>667</v>
+      </c>
+      <c r="E64" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F64" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G64" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H64" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I64" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J64" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="K64" s="28"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="33"/>
+      <c r="B65" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="C65" s="28" t="s">
+        <v>517</v>
+      </c>
+      <c r="D65" s="31" t="s">
+        <v>668</v>
+      </c>
+      <c r="E65" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F65" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G65" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H65" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I65" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J65" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="K65" s="28"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="33"/>
+      <c r="B66" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="C66" s="28" t="s">
+        <v>476</v>
+      </c>
+      <c r="D66" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>557</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>530</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="K29" s="1"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>551</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="K31" s="1"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="K32" s="1"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="K33" s="1"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>538</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="K34" s="1"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>540</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="K35" s="1"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="K36" s="1"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="K38" s="1"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>544</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="K39" s="1"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="K40" s="1"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>546</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="K41" s="1"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>547</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="K42" s="1"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="K43" s="1"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>553</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="K44" s="1"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="K45" s="1"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="K46" s="1"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="K48" s="1"/>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="K49" s="1"/>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="K50" s="1"/>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="K51" s="1"/>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B52" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="K52" s="1"/>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="K53" s="1"/>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B54" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B55" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>535</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="K55" s="1"/>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B56" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>536</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="K56" s="1"/>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B57" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="K57" s="1"/>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="K58" s="1"/>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B59" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="K59" s="1"/>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B60" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="K60" s="1"/>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B61" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B62" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B63" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="K63" s="1"/>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B64" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B65" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="K65" s="1"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B66" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="K66" s="1"/>
+      <c r="E66" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F66" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G66" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H66" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I66" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J66" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="K66" s="28"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K66" xr:uid="{3FE0C7C0-900C-4185-AC45-E4C4ED661620}"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
     <hyperlink ref="H2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="H4" r:id="rId3" xr:uid="{8296A109-13B8-406F-8FD0-46F7E4E3BFF2}"/>
-    <hyperlink ref="H5" r:id="rId4" xr:uid="{CB785273-BB42-46ED-850E-648A1C2E37C9}"/>
-    <hyperlink ref="H6" r:id="rId5" xr:uid="{822209EB-8E12-4ED7-89D3-D516B6AE36F7}"/>
-    <hyperlink ref="H7" r:id="rId6" xr:uid="{5255C1B0-45B8-47F3-BB72-6522A0FEBAAF}"/>
-    <hyperlink ref="H8" r:id="rId7" xr:uid="{A6509C4C-EB27-4806-977D-BFE9301C0BEE}"/>
-    <hyperlink ref="H9" r:id="rId8" xr:uid="{BB09527D-DE44-4034-BD6C-E86A211E73C4}"/>
-    <hyperlink ref="H10" r:id="rId9" xr:uid="{29D3D7DC-38E5-41FF-AE4D-75B2DF15E001}"/>
-    <hyperlink ref="H11" r:id="rId10" xr:uid="{95BBD3BD-79DE-4BF4-927D-24C46804998C}"/>
-    <hyperlink ref="H12" r:id="rId11" xr:uid="{D977A8A8-0A0A-40DF-AEE2-3105565D285C}"/>
-    <hyperlink ref="H13" r:id="rId12" xr:uid="{425F695F-39BE-43E9-9D10-6E043EA2B3F9}"/>
-    <hyperlink ref="H15" r:id="rId13" xr:uid="{A9CC4FC3-12D2-4E07-9E8E-03F8B4F7073D}"/>
-    <hyperlink ref="H17" r:id="rId14" xr:uid="{8574082A-C323-48D4-BD46-ED2755278F0F}"/>
-    <hyperlink ref="H18" r:id="rId15" xr:uid="{1AB7FBB3-223B-414B-A2A6-D40C41815B34}"/>
-    <hyperlink ref="H19" r:id="rId16" xr:uid="{C6EF40BD-1421-4D0F-A95C-79ADF656AF06}"/>
-    <hyperlink ref="H20" r:id="rId17" xr:uid="{81578D09-407C-4B5B-877E-0F4C247B4B15}"/>
-    <hyperlink ref="H21" r:id="rId18" xr:uid="{372146E3-0B71-406D-A9AD-4A31D75A052D}"/>
-    <hyperlink ref="H26" r:id="rId19" xr:uid="{E60FAC8B-1A50-4848-BDEB-1C857A49AC09}"/>
-    <hyperlink ref="H27" r:id="rId20" xr:uid="{53BECCA2-EACE-4E5D-85D0-8DC73CF02C07}"/>
-    <hyperlink ref="H24" r:id="rId21" xr:uid="{CB3DD6F2-63DD-4EBB-8FD6-205A77363DCA}"/>
-    <hyperlink ref="H22" r:id="rId22" xr:uid="{E19649E5-C972-4916-B255-000553A269DE}"/>
-    <hyperlink ref="H16" r:id="rId23" xr:uid="{1BCAEFAE-E80E-4B78-BAE9-6885C49A3B19}"/>
-    <hyperlink ref="H14" r:id="rId24" xr:uid="{2AAA5BFE-FE7A-4888-91D8-A5E6103F8F21}"/>
-    <hyperlink ref="H28" r:id="rId25" xr:uid="{770409F4-C094-4332-86C7-63941441A8B7}"/>
-    <hyperlink ref="H29" r:id="rId26" xr:uid="{384F1951-52CA-4C31-A99A-4DCEB52BA9BF}"/>
-    <hyperlink ref="H30" r:id="rId27" xr:uid="{D360C653-EFF5-4D99-8E34-325BBF052ED1}"/>
-    <hyperlink ref="H31" r:id="rId28" xr:uid="{84B14622-FA3C-4DCA-B097-9C8B9C86A5A3}"/>
-    <hyperlink ref="H32" r:id="rId29" xr:uid="{96E00152-90CC-4680-9CD5-4A705E609F5C}"/>
-    <hyperlink ref="H33" r:id="rId30" xr:uid="{9514D0B9-2439-40BE-ADC2-85CC9B63A82A}"/>
-    <hyperlink ref="H34" r:id="rId31" xr:uid="{8F0D7574-C042-4043-A2FB-D1F6DDF5DDEA}"/>
-    <hyperlink ref="H35" r:id="rId32" xr:uid="{027C8B82-BEC9-4CF5-B492-4070E6F09CF9}"/>
-    <hyperlink ref="H36" r:id="rId33" xr:uid="{DD8F5051-8F0C-4210-8116-A70E6E5467B1}"/>
-    <hyperlink ref="H37" r:id="rId34" xr:uid="{8192F3DE-8B57-4069-B2C1-B7114F874D16}"/>
-    <hyperlink ref="H38" r:id="rId35" xr:uid="{112C717B-EAB8-4289-94A0-FABE92E7496E}"/>
-    <hyperlink ref="H39" r:id="rId36" xr:uid="{6EB3663D-7E6B-4B35-A771-2CF4AA8AFE3E}"/>
-    <hyperlink ref="H40" r:id="rId37" xr:uid="{12B9F678-DF8A-4A3B-82C9-7474767C1938}"/>
-    <hyperlink ref="H41" r:id="rId38" xr:uid="{A0073CF6-6C3A-401C-8D03-C2E636516051}"/>
-    <hyperlink ref="H42" r:id="rId39" xr:uid="{932CB101-B0DC-4CD2-960B-4E48196F0667}"/>
-    <hyperlink ref="H23" r:id="rId40" xr:uid="{79575E92-B50A-4A0D-A1D5-FCBEF47FAC94}"/>
-    <hyperlink ref="H25" r:id="rId41" xr:uid="{5305ECEA-6DA2-475D-8040-364361B8B622}"/>
-    <hyperlink ref="H47" r:id="rId42" xr:uid="{15FD84DF-3DE8-4F00-B80F-F457E0FEDCC4}"/>
-    <hyperlink ref="H54" r:id="rId43" xr:uid="{667288A0-878B-4D59-9950-3B3754230140}"/>
-    <hyperlink ref="H43" r:id="rId44" xr:uid="{95F9055E-AA4C-411A-9786-9144982252F0}"/>
-    <hyperlink ref="H44" r:id="rId45" xr:uid="{6D9AAEE0-1233-48FC-90E1-042AC94A78E8}"/>
-    <hyperlink ref="H45" r:id="rId46" xr:uid="{4612ECA4-221D-4ED9-9AAA-5D1CD8E55C7A}"/>
-    <hyperlink ref="H46" r:id="rId47" xr:uid="{15DA8416-E447-403B-8588-AB6C20E8E1C1}"/>
-    <hyperlink ref="H48" r:id="rId48" xr:uid="{80BF1872-A53D-4772-B9DB-3867E25BA8FF}"/>
-    <hyperlink ref="H49" r:id="rId49" xr:uid="{D0C5547B-68A3-44F0-B217-47A8E09BEDB9}"/>
-    <hyperlink ref="H50" r:id="rId50" xr:uid="{671B3C7B-5A9B-4A00-A3FA-A2F5C7AA4934}"/>
-    <hyperlink ref="H51" r:id="rId51" xr:uid="{EFEBB56E-D5B3-4737-ADD2-1BB053C2BDAF}"/>
-    <hyperlink ref="H52" r:id="rId52" xr:uid="{F0369423-C39E-4012-BEBB-3600FDD7654D}"/>
-    <hyperlink ref="H53" r:id="rId53" xr:uid="{0A6FAC78-90A9-46D0-9A76-7BE8CF342F8A}"/>
-    <hyperlink ref="H55" r:id="rId54" xr:uid="{F64B5B2A-D1CF-487E-BDF2-BBA8B8C5D6B6}"/>
-    <hyperlink ref="H56" r:id="rId55" xr:uid="{28DA29FA-F72C-4487-A8D4-9C5F1862DE1B}"/>
-    <hyperlink ref="H57" r:id="rId56" xr:uid="{BBD347D1-3981-4EA0-AF4B-893B327F7E55}"/>
-    <hyperlink ref="H58" r:id="rId57" xr:uid="{794448A0-09A6-42D9-967F-86501B55EF9D}"/>
-    <hyperlink ref="H62" r:id="rId58" xr:uid="{4A4E31FE-7C06-4D0C-A1C4-634C7BBCBF5C}"/>
-    <hyperlink ref="H64" r:id="rId59" xr:uid="{AB8D5352-BBDB-45DD-B026-7E0358F57CE6}"/>
-    <hyperlink ref="H59" r:id="rId60" xr:uid="{37B3F0FF-C9EE-4C01-8722-40FD68079DA9}"/>
-    <hyperlink ref="H60" r:id="rId61" xr:uid="{1100AE64-E738-4D5B-986C-E47B813A5840}"/>
-    <hyperlink ref="H63" r:id="rId62" xr:uid="{054553A4-05AC-4A16-B4E9-3932079DDDFA}"/>
-    <hyperlink ref="H66" r:id="rId63" xr:uid="{06897F54-74C5-4291-8736-6AFF25C6F99E}"/>
-    <hyperlink ref="H61" r:id="rId64" xr:uid="{4764342A-5F02-4D0A-92A7-1FD425823448}"/>
-    <hyperlink ref="H65" r:id="rId65" xr:uid="{B240EE9D-EFF7-4600-867D-BED64F12955A}"/>
-    <hyperlink ref="H3" r:id="rId66" xr:uid="{EB852517-E52A-484B-98C4-8B8C2354D254}"/>
+    <hyperlink ref="H66" r:id="rId3" xr:uid="{06897F54-74C5-4291-8736-6AFF25C6F99E}"/>
+    <hyperlink ref="H4" r:id="rId4" xr:uid="{D774F18A-A688-45F7-86B8-796E032DAE3F}"/>
+    <hyperlink ref="H5" r:id="rId5" xr:uid="{7878E8D9-5E8F-495E-925E-8351F6FB2663}"/>
+    <hyperlink ref="H6" r:id="rId6" xr:uid="{C9E913C7-0F57-44E8-B019-BAC7010B6CA0}"/>
+    <hyperlink ref="H7" r:id="rId7" xr:uid="{C6557E70-041A-4D46-9500-7FE99F452F87}"/>
+    <hyperlink ref="H8" r:id="rId8" xr:uid="{CFCB8E20-C803-4D8C-9D9E-86BC5BF9FA34}"/>
+    <hyperlink ref="H9" r:id="rId9" xr:uid="{0F934D67-7F15-43B3-9803-18ACE922F3CD}"/>
+    <hyperlink ref="H10" r:id="rId10" xr:uid="{A4BD6882-42A0-4402-9815-DC06AE512DC5}"/>
+    <hyperlink ref="H11" r:id="rId11" xr:uid="{C5F5A9B7-134C-44CD-93CF-3452CE62B3FD}"/>
+    <hyperlink ref="H12" r:id="rId12" xr:uid="{1BDFBE2D-97B9-43B2-9748-9B78347FFB89}"/>
+    <hyperlink ref="H14" r:id="rId13" xr:uid="{C95D4618-37E8-4731-BC92-B9A35EB741EB}"/>
+    <hyperlink ref="H16" r:id="rId14" xr:uid="{73C2717B-C621-4294-85C7-51B32391282A}"/>
+    <hyperlink ref="H17" r:id="rId15" xr:uid="{ED71C516-EFAD-42FE-9C55-3EE2F4241172}"/>
+    <hyperlink ref="H18" r:id="rId16" xr:uid="{8936B443-1F1D-48AE-9EBE-3C19D58DB35E}"/>
+    <hyperlink ref="H19" r:id="rId17" xr:uid="{FE9D41E6-070E-4D34-8B2A-F9AC46153428}"/>
+    <hyperlink ref="H20" r:id="rId18" xr:uid="{B855DEF1-9ABE-4548-B165-3757236AA7ED}"/>
+    <hyperlink ref="H25" r:id="rId19" xr:uid="{C839428A-6D89-4718-8E27-1C2B6C3CB4BD}"/>
+    <hyperlink ref="H26" r:id="rId20" xr:uid="{120F7D4E-7400-4D71-998B-2764083082B4}"/>
+    <hyperlink ref="H23" r:id="rId21" xr:uid="{29FABAEB-B860-4E2C-9F81-72B849CDAB55}"/>
+    <hyperlink ref="H21" r:id="rId22" xr:uid="{9583033F-0252-4ACA-8D3C-5C5643004D4B}"/>
+    <hyperlink ref="H15" r:id="rId23" xr:uid="{EE575F54-825D-4C74-A7F0-40C9B6D58FDC}"/>
+    <hyperlink ref="H13" r:id="rId24" xr:uid="{1909A715-572C-405D-ACF3-9CFE13717920}"/>
+    <hyperlink ref="H27" r:id="rId25" xr:uid="{B11108D8-6AE3-41FD-90CD-8F910D937AD8}"/>
+    <hyperlink ref="H28" r:id="rId26" xr:uid="{32B50CE5-419C-4944-B31B-F6648C25E29E}"/>
+    <hyperlink ref="H29" r:id="rId27" xr:uid="{7184CEDF-67F7-4DED-8C24-500EABBCC6C8}"/>
+    <hyperlink ref="H30" r:id="rId28" xr:uid="{F345E06A-9564-4B8E-91E6-8E661C0C3D46}"/>
+    <hyperlink ref="H31" r:id="rId29" xr:uid="{BD1BE1B1-3B4B-4811-83D8-B368E1D889F9}"/>
+    <hyperlink ref="H32" r:id="rId30" xr:uid="{BAF644F5-3878-43F8-B94A-CBEF4A871F06}"/>
+    <hyperlink ref="H33" r:id="rId31" xr:uid="{0C753F57-C1CE-4FC0-8EF7-D90FA9737659}"/>
+    <hyperlink ref="H34" r:id="rId32" xr:uid="{C5C1CF29-B8A5-43A1-A260-D907BD19FF7F}"/>
+    <hyperlink ref="H35" r:id="rId33" xr:uid="{C7DE9351-D3D4-4AFE-91ED-3BE687ADCA2E}"/>
+    <hyperlink ref="H36" r:id="rId34" xr:uid="{F2A1A95B-307D-44E7-9E06-97A54E6173AC}"/>
+    <hyperlink ref="H37" r:id="rId35" xr:uid="{D74B322E-3246-41A6-B8F3-B0A599671444}"/>
+    <hyperlink ref="H38" r:id="rId36" xr:uid="{F2656051-C955-4FBA-8971-7E919DC278B4}"/>
+    <hyperlink ref="H39" r:id="rId37" xr:uid="{5A316ED0-7CA9-429D-8EA2-14B1802985FC}"/>
+    <hyperlink ref="H40" r:id="rId38" xr:uid="{FB92F188-78B7-46B3-90A7-8463E99CB63E}"/>
+    <hyperlink ref="H41" r:id="rId39" xr:uid="{5F68859A-3C1D-45FF-BC83-D24C648847CC}"/>
+    <hyperlink ref="H22" r:id="rId40" xr:uid="{506F2FAA-CF9F-4D81-A47F-A85C336825CF}"/>
+    <hyperlink ref="H24" r:id="rId41" xr:uid="{964A5141-99EE-4459-B727-99646416DF80}"/>
+    <hyperlink ref="H46" r:id="rId42" xr:uid="{5F1BE46A-6F6C-4026-801C-308D03C28127}"/>
+    <hyperlink ref="H53" r:id="rId43" xr:uid="{274AA7D7-A0F5-4872-A0A3-7D279511FEC5}"/>
+    <hyperlink ref="H42" r:id="rId44" xr:uid="{54FA74BE-E2E6-4668-8B51-EFDA93FADCC1}"/>
+    <hyperlink ref="H43" r:id="rId45" xr:uid="{6C1B03F8-BBB9-4D36-8A7E-2B09CE93FDBA}"/>
+    <hyperlink ref="H44" r:id="rId46" xr:uid="{0FEBB70D-943E-4949-95D0-BAF07974050C}"/>
+    <hyperlink ref="H45" r:id="rId47" xr:uid="{8CEDC706-AA40-4AA9-9B10-27365DDA728A}"/>
+    <hyperlink ref="H47" r:id="rId48" xr:uid="{47224481-5A4B-498D-BB16-7140F15EB751}"/>
+    <hyperlink ref="H48" r:id="rId49" xr:uid="{4B47C14F-C37D-41F9-AC39-622280150990}"/>
+    <hyperlink ref="H49" r:id="rId50" xr:uid="{6C1F4B3D-3D7C-4999-BD1D-77C7E9C20166}"/>
+    <hyperlink ref="H50" r:id="rId51" xr:uid="{AFCCB02C-9A3A-4D9A-9CCE-D768B4A75D7C}"/>
+    <hyperlink ref="H51" r:id="rId52" xr:uid="{68AB6E86-4826-4CF4-B97D-ADB20D57331B}"/>
+    <hyperlink ref="H52" r:id="rId53" xr:uid="{DF954E53-6492-4746-81C9-1E377F7A7B8D}"/>
+    <hyperlink ref="H54" r:id="rId54" xr:uid="{032308A0-5272-4252-919A-0A3F43E31F68}"/>
+    <hyperlink ref="H55" r:id="rId55" xr:uid="{8E3A09CD-6D18-4346-A413-05D80750468B}"/>
+    <hyperlink ref="H56" r:id="rId56" xr:uid="{DAB70257-7413-4E4C-B109-674AA5B94645}"/>
+    <hyperlink ref="H57" r:id="rId57" xr:uid="{4CA3FA5D-178B-4EA8-92D9-A8945D8AD5A0}"/>
+    <hyperlink ref="H61" r:id="rId58" xr:uid="{A3A6EE0D-715F-46ED-A51F-A2D7756E884F}"/>
+    <hyperlink ref="H63" r:id="rId59" xr:uid="{00169AFD-951E-4E27-9CEF-2C69A5E56B3D}"/>
+    <hyperlink ref="H58" r:id="rId60" xr:uid="{5D4E3FF9-E92C-4B93-A025-5E4CA80ACBC4}"/>
+    <hyperlink ref="H59" r:id="rId61" xr:uid="{A3CB79D7-75F1-4B4C-B430-7454AEE36469}"/>
+    <hyperlink ref="H62" r:id="rId62" xr:uid="{DE2B63BE-6D84-4199-B940-4DBDA233C61D}"/>
+    <hyperlink ref="H65" r:id="rId63" xr:uid="{6DFB8E86-9E77-485B-AAFE-2347CBFA58FF}"/>
+    <hyperlink ref="H60" r:id="rId64" xr:uid="{2DED5565-ECA7-497B-90EA-EFDFFB9B5465}"/>
+    <hyperlink ref="H64" r:id="rId65" xr:uid="{C9538FCF-622E-452F-942A-F0810ECA41E3}"/>
+    <hyperlink ref="H3" r:id="rId66" xr:uid="{A566B092-46E6-49E0-93D4-76BBE2F1A1E2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" verticalDpi="0" r:id="rId67"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -6865,7 +8429,7 @@
         <v>19</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>593</v>
+        <v>669</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -6879,10 +8443,10 @@
         <v>220</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>595</v>
+        <v>519</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>658</v>
+        <v>581</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>52</v>
@@ -6897,7 +8461,7 @@
         <v>55</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>659</v>
+        <v>582</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>232</v>
@@ -6911,7 +8475,7 @@
         <v>221</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>596</v>
+        <v>520</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>80</v>
@@ -6934,7 +8498,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B5" s="26" t="s">
         <v>223</v>
@@ -6943,7 +8507,7 @@
         <v>33</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>597</v>
+        <v>521</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>32</v>
@@ -6972,7 +8536,7 @@
         <v>35</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>598</v>
+        <v>522</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>34</v>
@@ -7000,8 +8564,8 @@
       <c r="C7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="24" t="s">
-        <v>599</v>
+      <c r="D7" s="6" t="s">
+        <v>222</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>51</v>
@@ -7019,7 +8583,7 @@
         <v>55</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>594</v>
+        <v>518</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -7030,7 +8594,7 @@
         <v>227</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>600</v>
+        <v>523</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>228</v>
@@ -7059,7 +8623,7 @@
         <v>230</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>601</v>
+        <v>524</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>231</v>
@@ -7091,7 +8655,7 @@
         <v>234</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>602</v>
+        <v>525</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>235</v>
@@ -7114,16 +8678,16 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>526</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>603</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>52</v>
@@ -7146,13 +8710,13 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>604</v>
+        <v>527</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>51</v>
@@ -7170,18 +8734,18 @@
         <v>55</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>594</v>
+        <v>518</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>605</v>
+        <v>528</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>34</v>
@@ -7204,13 +8768,13 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>606</v>
+        <v>529</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>51</v>
@@ -7228,18 +8792,18 @@
         <v>55</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>594</v>
+        <v>518</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>515</v>
+        <v>480</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>607</v>
+        <v>530</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>34</v>
@@ -7262,13 +8826,13 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>608</v>
+        <v>531</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>51</v>
@@ -7286,18 +8850,18 @@
         <v>55</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>594</v>
+        <v>518</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>609</v>
+        <v>532</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>51</v>
@@ -7315,18 +8879,18 @@
         <v>55</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>594</v>
+        <v>518</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>610</v>
+        <v>533</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>51</v>
@@ -7344,18 +8908,18 @@
         <v>55</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>594</v>
+        <v>518</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>611</v>
+        <v>534</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>51</v>
@@ -7373,18 +8937,18 @@
         <v>55</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>594</v>
+        <v>518</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>612</v>
+        <v>535</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>51</v>
@@ -7402,18 +8966,18 @@
         <v>55</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>594</v>
+        <v>518</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>516</v>
+        <v>481</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>613</v>
+        <v>536</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>34</v>
@@ -7436,13 +9000,13 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>614</v>
+        <v>537</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>51</v>
@@ -7460,18 +9024,18 @@
         <v>55</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>594</v>
+        <v>518</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>517</v>
+        <v>482</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>615</v>
+        <v>538</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>34</v>
@@ -7494,13 +9058,13 @@
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>51</v>
@@ -7518,18 +9082,18 @@
         <v>55</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>594</v>
+        <v>518</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>617</v>
+        <v>540</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>51</v>
@@ -7547,18 +9111,18 @@
         <v>55</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>594</v>
+        <v>518</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>618</v>
+        <v>541</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>51</v>
@@ -7576,18 +9140,18 @@
         <v>55</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>594</v>
+        <v>518</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>619</v>
+        <v>542</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>51</v>
@@ -7605,18 +9169,18 @@
         <v>55</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>594</v>
+        <v>518</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>620</v>
+        <v>543</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>51</v>
@@ -7634,18 +9198,18 @@
         <v>55</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>594</v>
+        <v>518</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>621</v>
+        <v>544</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>51</v>
@@ -7663,18 +9227,18 @@
         <v>55</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>594</v>
+        <v>518</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>622</v>
+        <v>545</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>51</v>
@@ -7692,18 +9256,18 @@
         <v>55</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>594</v>
+        <v>518</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>623</v>
+        <v>546</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>51</v>
@@ -7721,18 +9285,18 @@
         <v>55</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>594</v>
+        <v>518</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>559</v>
+        <v>484</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>624</v>
+        <v>547</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>51</v>
@@ -7750,18 +9314,18 @@
         <v>55</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>594</v>
+        <v>518</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>560</v>
+        <v>485</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>625</v>
+        <v>548</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>51</v>
@@ -7779,18 +9343,18 @@
         <v>55</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>594</v>
+        <v>518</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>561</v>
+        <v>486</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>626</v>
+        <v>549</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>51</v>
@@ -7808,18 +9372,18 @@
         <v>55</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>594</v>
+        <v>518</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>562</v>
+        <v>487</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>627</v>
+        <v>550</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>51</v>
@@ -7837,18 +9401,18 @@
         <v>55</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>594</v>
+        <v>518</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>563</v>
+        <v>488</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>628</v>
+        <v>551</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>51</v>
@@ -7866,18 +9430,18 @@
         <v>55</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>594</v>
+        <v>518</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>564</v>
+        <v>489</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>629</v>
+        <v>552</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>51</v>
@@ -7895,18 +9459,18 @@
         <v>55</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>594</v>
+        <v>518</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>565</v>
+        <v>490</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>630</v>
+        <v>553</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>51</v>
@@ -7924,18 +9488,18 @@
         <v>55</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>594</v>
+        <v>518</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>566</v>
+        <v>491</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>631</v>
+        <v>554</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>51</v>
@@ -7953,18 +9517,18 @@
         <v>55</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>594</v>
+        <v>518</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>567</v>
+        <v>492</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>632</v>
+        <v>555</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>51</v>
@@ -7982,18 +9546,18 @@
         <v>55</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>594</v>
+        <v>518</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>568</v>
+        <v>493</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>633</v>
+        <v>556</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>51</v>
@@ -8011,18 +9575,18 @@
         <v>55</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>594</v>
+        <v>518</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>569</v>
+        <v>494</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>634</v>
+        <v>557</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>51</v>
@@ -8040,18 +9604,18 @@
         <v>55</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>594</v>
+        <v>518</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>570</v>
+        <v>495</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>635</v>
+        <v>558</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>51</v>
@@ -8069,18 +9633,18 @@
         <v>55</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>594</v>
+        <v>518</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>571</v>
+        <v>496</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>636</v>
+        <v>559</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>51</v>
@@ -8098,18 +9662,18 @@
         <v>55</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>594</v>
+        <v>518</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>572</v>
+        <v>497</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>637</v>
+        <v>560</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>51</v>
@@ -8127,21 +9691,21 @@
         <v>55</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>594</v>
+        <v>518</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>573</v>
+        <v>498</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>638</v>
+        <v>561</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>52</v>
@@ -8164,13 +9728,13 @@
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>574</v>
+        <v>499</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>639</v>
+        <v>562</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>51</v>
@@ -8188,18 +9752,18 @@
         <v>55</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>594</v>
+        <v>518</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>575</v>
+        <v>500</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>640</v>
+        <v>563</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>51</v>
@@ -8217,18 +9781,18 @@
         <v>55</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>594</v>
+        <v>518</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>576</v>
+        <v>501</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>641</v>
+        <v>564</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>51</v>
@@ -8246,18 +9810,18 @@
         <v>55</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>594</v>
+        <v>518</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>577</v>
+        <v>502</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>642</v>
+        <v>565</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>51</v>
@@ -8275,18 +9839,18 @@
         <v>55</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>594</v>
+        <v>518</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>578</v>
+        <v>503</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>643</v>
+        <v>566</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>51</v>
@@ -8304,18 +9868,18 @@
         <v>55</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>594</v>
+        <v>518</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>579</v>
+        <v>504</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>644</v>
+        <v>567</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>51</v>
@@ -8333,21 +9897,21 @@
         <v>55</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>594</v>
+        <v>518</v>
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>580</v>
+        <v>505</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>645</v>
+        <v>568</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>52</v>
@@ -8370,13 +9934,13 @@
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
-        <v>490</v>
+        <v>466</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>581</v>
+        <v>506</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>646</v>
+        <v>569</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>51</v>
@@ -8394,18 +9958,18 @@
         <v>55</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>594</v>
+        <v>518</v>
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>582</v>
+        <v>507</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>647</v>
+        <v>570</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>51</v>
@@ -8423,18 +9987,18 @@
         <v>55</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>594</v>
+        <v>518</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>583</v>
+        <v>508</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>648</v>
+        <v>571</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>51</v>
@@ -8452,18 +10016,18 @@
         <v>55</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>594</v>
+        <v>518</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
-        <v>493</v>
+        <v>469</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>584</v>
+        <v>509</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>649</v>
+        <v>572</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>51</v>
@@ -8481,18 +10045,18 @@
         <v>55</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>594</v>
+        <v>518</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
-        <v>498</v>
+        <v>470</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>585</v>
+        <v>510</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>650</v>
+        <v>573</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>51</v>
@@ -8510,18 +10074,18 @@
         <v>55</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>594</v>
+        <v>518</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
-        <v>499</v>
+        <v>471</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>586</v>
+        <v>511</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>651</v>
+        <v>574</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>51</v>
@@ -8539,21 +10103,21 @@
         <v>55</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>594</v>
+        <v>518</v>
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
-        <v>510</v>
+        <v>477</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>587</v>
+        <v>512</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>652</v>
+        <v>575</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>52</v>
@@ -8576,16 +10140,16 @@
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
-        <v>502</v>
+        <v>474</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>588</v>
+        <v>513</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>653</v>
+        <v>576</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>52</v>
@@ -8608,13 +10172,13 @@
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
-        <v>500</v>
+        <v>472</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>589</v>
+        <v>514</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>654</v>
+        <v>577</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>51</v>
@@ -8632,21 +10196,21 @@
         <v>55</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>594</v>
+        <v>518</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
-        <v>503</v>
+        <v>475</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>590</v>
+        <v>515</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>655</v>
+        <v>578</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>52</v>
@@ -8669,13 +10233,13 @@
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
-        <v>512</v>
+        <v>478</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>591</v>
+        <v>516</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>656</v>
+        <v>579</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>51</v>
@@ -8693,18 +10257,18 @@
         <v>55</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>594</v>
+        <v>518</v>
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
-        <v>501</v>
+        <v>473</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>592</v>
+        <v>517</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>657</v>
+        <v>580</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>51</v>
@@ -8722,10 +10286,11 @@
         <v>55</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>594</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K65" xr:uid="{7AF4F709-C474-47C7-A680-C65F9BD207C2}"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
     <hyperlink ref="H4" r:id="rId2" xr:uid="{E8625B41-47C9-42E0-9A74-10C3672962B1}"/>
@@ -8797,7 +10362,160 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03FDA06-9F92-49C6-8A00-2EE1AEC24A99}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="67" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="C2" t="s">
+        <v>671</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>673</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{0F309FF0-FE27-48F0-AA30-A9D16220619B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F2B47B-56D5-4D18-829C-61064082089E}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C2" t="s">
+        <v>585</v>
+      </c>
+      <c r="D2" s="27" t="str">
+        <f>E2</f>
+        <v>Rudra_2806</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C3" t="s">
+        <v>588</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C4" t="s">
+        <v>591</v>
+      </c>
+      <c r="D4" s="6" t="str">
+        <f>emailCred!A2</f>
+        <v>Spidey@1990</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMK3"/>
   <sheetViews>
@@ -8858,7 +10576,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>17</v>
@@ -8898,12 +10616,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AMK3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8922,18 +10640,18 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>555</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>556</v>
+        <v>483</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -8948,1313 +10666,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AMK2"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.28515625" style="21" collapsed="1"/>
-    <col min="2" max="2" width="35.85546875" style="21" collapsed="1"/>
-    <col min="3" max="3" width="19.5703125" style="21" collapsed="1"/>
-    <col min="4" max="4" width="11.5703125" style="21" collapsed="1"/>
-    <col min="5" max="5" width="10.42578125" style="21" collapsed="1"/>
-    <col min="6" max="6" width="16.7109375" style="21" collapsed="1"/>
-    <col min="7" max="7" width="8.42578125" collapsed="1"/>
-    <col min="8" max="8" width="5" collapsed="1"/>
-    <col min="9" max="9" width="8.42578125" collapsed="1"/>
-    <col min="10" max="10" width="5" collapsed="1"/>
-    <col min="11" max="13" width="8.42578125" collapsed="1"/>
-    <col min="14" max="14" width="9.5703125" collapsed="1"/>
-    <col min="15" max="20" width="8.42578125" collapsed="1"/>
-    <col min="21" max="21" width="21" collapsed="1"/>
-    <col min="22" max="1025" width="8.42578125" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="F2" s="22">
-        <v>42036</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:AMK44"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.42578125" collapsed="1"/>
-    <col min="2" max="2" width="75.5703125" collapsed="1"/>
-    <col min="3" max="1025" width="8.42578125" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>41</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>42</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>43</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A3:AMK54"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="30.85546875" collapsed="1"/>
-    <col min="3" max="3" width="17.85546875" collapsed="1"/>
-    <col min="4" max="4" width="35.5703125" collapsed="1"/>
-    <col min="5" max="5" width="32.28515625" collapsed="1"/>
-    <col min="6" max="1025" width="8.42578125" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
 </file>
--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shailendra.rajawat\git\iotronApex5\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6FF674-4759-4960-8975-3AA94DB8B8B7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961F7CFA-CCCB-4DE2-B3A8-A627BC191C0D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="12825" tabRatio="988" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="12825" tabRatio="988" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UAT" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1945" uniqueCount="684">
   <si>
     <t>url</t>
   </si>
@@ -1500,9 +1500,6 @@
     <t>SHAILENDRA.AUSOP.OR_T14</t>
   </si>
   <si>
-    <t>Spidey@1990</t>
-  </si>
-  <si>
     <t>SHAILENDRA.NGC.KPN_Op4_T01</t>
   </si>
   <si>
@@ -1608,9 +1605,6 @@
     <t>IOTRON_ADMIN,IOTRON What-If,MANAGER,ACCOUNT MANAGER,OPERATIONS SUPPORT 2</t>
   </si>
   <si>
-    <t>Auto$120219123312</t>
-  </si>
-  <si>
     <t>Auto$120219123340</t>
   </si>
   <si>
@@ -1800,9 +1794,6 @@
     <t>IOTRON_ADMIN,IOTRON What-If,IOTRON_SETT_BRIDGE_CRUD_USER,MANAGER,IOTRON_DT_Budget,IOTRON_DT_Flash,IOTRON_Deal_Tracker</t>
   </si>
   <si>
-    <t>Auto$040319195809</t>
-  </si>
-  <si>
     <t>micky</t>
   </si>
   <si>
@@ -1851,9 +1842,6 @@
     <t>DEV_SR</t>
   </si>
   <si>
-    <t>Nkj45jgsD8</t>
-  </si>
-  <si>
     <t>PREPROD</t>
   </si>
   <si>
@@ -2061,9 +2049,6 @@
     <t>Auto$170419115557</t>
   </si>
   <si>
-    <t>shailendra.rajawat@nextgenclearing.com,prafull.barve@nextgenclearing.com,ivana.jandrecic@nextgenclearing.com,dario.curjak@nextgenclearing.com</t>
-  </si>
-  <si>
     <t>micky.priya</t>
   </si>
   <si>
@@ -2074,6 +2059,48 @@
   </si>
   <si>
     <t>https://fch.nextgenclearing.com/pls/apex/f?p=10132:35:11449201093111::NO:::</t>
+  </si>
+  <si>
+    <t>prafull.barve@nextgenclearing.com</t>
+  </si>
+  <si>
+    <t>ivana.jandrecic@nextgenclearing.com</t>
+  </si>
+  <si>
+    <t>dario.curjak@nextgenclearing.com</t>
+  </si>
+  <si>
+    <t>aarjav.thakore@nextgenclearing.com</t>
+  </si>
+  <si>
+    <t>micky.priya@nextgenclearing.com</t>
+  </si>
+  <si>
+    <t>kelvin.egoh@nextgenclearing.com</t>
+  </si>
+  <si>
+    <t>vaibhav.aggarwal@nextgenclearing.com</t>
+  </si>
+  <si>
+    <t>IOTRON</t>
+  </si>
+  <si>
+    <t>QLIK</t>
+  </si>
+  <si>
+    <t>Individual Emails for formula &amp;","&amp;</t>
+  </si>
+  <si>
+    <t>Team Info just for Information, not used anywhere in framework</t>
+  </si>
+  <si>
+    <t>Auto$030519144918</t>
+  </si>
+  <si>
+    <t>Thanos@1990</t>
+  </si>
+  <si>
+    <t>WAPTRQ6851</t>
   </si>
 </sst>
 </file>
@@ -2241,7 +2268,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2304,6 +2331,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6117,19 +6147,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C1" t="s">
+        <v>591</v>
+      </c>
+      <c r="D1" t="s">
         <v>592</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>593</v>
-      </c>
-      <c r="C1" t="s">
-        <v>594</v>
-      </c>
-      <c r="D1" t="s">
-        <v>595</v>
-      </c>
-      <c r="E1" t="s">
-        <v>596</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -6137,42 +6167,42 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B2" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C2">
         <v>1521</v>
       </c>
       <c r="D2" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="E2" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>600</v>
+        <v>683</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B3" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C3">
         <v>1521</v>
       </c>
       <c r="D3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="E3" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -6184,8 +6214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMK67"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6248,8 +6278,8 @@
       <c r="C2" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="D2" s="29" t="s">
-        <v>583</v>
+      <c r="D2" s="31" t="s">
+        <v>602</v>
       </c>
       <c r="E2" s="28" t="s">
         <v>51</v>
@@ -6278,10 +6308,10 @@
         <v>220</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F3" s="28" t="s">
         <v>52</v>
@@ -6296,7 +6326,7 @@
         <v>55</v>
       </c>
       <c r="J3" s="28" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="K3" s="28" t="s">
         <v>232</v>
@@ -6311,7 +6341,7 @@
         <v>221</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="E4" s="28" t="s">
         <v>80</v>
@@ -6342,7 +6372,7 @@
         <v>33</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="E5" s="28" t="s">
         <v>32</v>
@@ -6373,7 +6403,7 @@
         <v>35</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="E6" s="28" t="s">
         <v>34</v>
@@ -6404,7 +6434,7 @@
         <v>39</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="E7" s="28" t="s">
         <v>51</v>
@@ -6422,7 +6452,7 @@
         <v>55</v>
       </c>
       <c r="J7" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K7" s="28"/>
     </row>
@@ -6435,7 +6465,7 @@
         <v>227</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="E8" s="28" t="s">
         <v>228</v>
@@ -6466,7 +6496,7 @@
         <v>230</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="E9" s="28" t="s">
         <v>231</v>
@@ -6499,7 +6529,7 @@
         <v>234</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="E10" s="28" t="s">
         <v>235</v>
@@ -6530,7 +6560,7 @@
         <v>240</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="E11" s="28" t="s">
         <v>241</v>
@@ -6563,7 +6593,7 @@
         <v>408</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="E12" s="28" t="s">
         <v>51</v>
@@ -6581,7 +6611,7 @@
         <v>55</v>
       </c>
       <c r="J12" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K12" s="28"/>
     </row>
@@ -6594,7 +6624,7 @@
         <v>479</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="E13" s="28" t="s">
         <v>34</v>
@@ -6625,7 +6655,7 @@
         <v>409</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="E14" s="28" t="s">
         <v>51</v>
@@ -6643,7 +6673,7 @@
         <v>55</v>
       </c>
       <c r="J14" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K14" s="28"/>
     </row>
@@ -6656,7 +6686,7 @@
         <v>480</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="E15" s="28" t="s">
         <v>34</v>
@@ -6690,7 +6720,7 @@
         <v>410</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E16" s="28" t="s">
         <v>51</v>
@@ -6708,7 +6738,7 @@
         <v>55</v>
       </c>
       <c r="J16" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K16" s="28"/>
     </row>
@@ -6721,7 +6751,7 @@
         <v>411</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="E17" s="28" t="s">
         <v>51</v>
@@ -6739,7 +6769,7 @@
         <v>55</v>
       </c>
       <c r="J17" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K17" s="28"/>
     </row>
@@ -6752,7 +6782,7 @@
         <v>412</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="E18" s="28" t="s">
         <v>51</v>
@@ -6770,7 +6800,7 @@
         <v>55</v>
       </c>
       <c r="J18" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K18" s="28"/>
     </row>
@@ -6783,7 +6813,7 @@
         <v>413</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="E19" s="28" t="s">
         <v>51</v>
@@ -6801,7 +6831,7 @@
         <v>55</v>
       </c>
       <c r="J19" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K19" s="28"/>
     </row>
@@ -6814,7 +6844,7 @@
         <v>414</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E20" s="28" t="s">
         <v>51</v>
@@ -6832,7 +6862,7 @@
         <v>55</v>
       </c>
       <c r="J20" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K20" s="28"/>
     </row>
@@ -6845,7 +6875,7 @@
         <v>481</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="E21" s="28" t="s">
         <v>34</v>
@@ -6876,7 +6906,7 @@
         <v>451</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="E22" s="28" t="s">
         <v>51</v>
@@ -6894,7 +6924,7 @@
         <v>55</v>
       </c>
       <c r="J22" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K22" s="28"/>
     </row>
@@ -6907,7 +6937,7 @@
         <v>482</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="E23" s="28" t="s">
         <v>34</v>
@@ -6938,7 +6968,7 @@
         <v>453</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="E24" s="28" t="s">
         <v>51</v>
@@ -6956,7 +6986,7 @@
         <v>55</v>
       </c>
       <c r="J24" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K24" s="28"/>
     </row>
@@ -6969,7 +6999,7 @@
         <v>415</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="E25" s="28" t="s">
         <v>51</v>
@@ -6987,7 +7017,7 @@
         <v>55</v>
       </c>
       <c r="J25" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K25" s="28"/>
     </row>
@@ -7000,7 +7030,7 @@
         <v>416</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="E26" s="28" t="s">
         <v>51</v>
@@ -7018,7 +7048,7 @@
         <v>55</v>
       </c>
       <c r="J26" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K26" s="28"/>
     </row>
@@ -7031,7 +7061,7 @@
         <v>431</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="E27" s="28" t="s">
         <v>51</v>
@@ -7049,7 +7079,7 @@
         <v>55</v>
       </c>
       <c r="J27" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K27" s="28"/>
     </row>
@@ -7062,7 +7092,7 @@
         <v>436</v>
       </c>
       <c r="D28" s="31" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E28" s="28" t="s">
         <v>51</v>
@@ -7080,7 +7110,7 @@
         <v>55</v>
       </c>
       <c r="J28" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K28" s="28"/>
     </row>
@@ -7093,7 +7123,7 @@
         <v>437</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="E29" s="28" t="s">
         <v>51</v>
@@ -7111,7 +7141,7 @@
         <v>55</v>
       </c>
       <c r="J29" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K29" s="28"/>
     </row>
@@ -7124,7 +7154,7 @@
         <v>438</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="E30" s="28" t="s">
         <v>51</v>
@@ -7142,7 +7172,7 @@
         <v>55</v>
       </c>
       <c r="J30" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K30" s="28"/>
     </row>
@@ -7155,7 +7185,7 @@
         <v>439</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="E31" s="28" t="s">
         <v>51</v>
@@ -7173,7 +7203,7 @@
         <v>55</v>
       </c>
       <c r="J31" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K31" s="28"/>
     </row>
@@ -7183,10 +7213,10 @@
         <v>440</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="E32" s="28" t="s">
         <v>51</v>
@@ -7204,7 +7234,7 @@
         <v>55</v>
       </c>
       <c r="J32" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K32" s="28"/>
     </row>
@@ -7214,10 +7244,10 @@
         <v>441</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="E33" s="28" t="s">
         <v>51</v>
@@ -7235,7 +7265,7 @@
         <v>55</v>
       </c>
       <c r="J33" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K33" s="28"/>
     </row>
@@ -7245,10 +7275,10 @@
         <v>442</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="E34" s="28" t="s">
         <v>51</v>
@@ -7266,7 +7296,7 @@
         <v>55</v>
       </c>
       <c r="J34" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K34" s="28"/>
     </row>
@@ -7276,10 +7306,10 @@
         <v>443</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D35" s="31" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="E35" s="28" t="s">
         <v>51</v>
@@ -7297,7 +7327,7 @@
         <v>55</v>
       </c>
       <c r="J35" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K35" s="28"/>
     </row>
@@ -7307,10 +7337,10 @@
         <v>444</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D36" s="31" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="E36" s="28" t="s">
         <v>51</v>
@@ -7328,7 +7358,7 @@
         <v>55</v>
       </c>
       <c r="J36" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K36" s="28"/>
     </row>
@@ -7338,10 +7368,10 @@
         <v>445</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D37" s="31" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="E37" s="28" t="s">
         <v>51</v>
@@ -7359,7 +7389,7 @@
         <v>55</v>
       </c>
       <c r="J37" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K37" s="28"/>
     </row>
@@ -7369,10 +7399,10 @@
         <v>446</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D38" s="31" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="E38" s="28" t="s">
         <v>51</v>
@@ -7390,7 +7420,7 @@
         <v>55</v>
       </c>
       <c r="J38" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K38" s="28"/>
     </row>
@@ -7400,10 +7430,10 @@
         <v>447</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D39" s="31" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="E39" s="28" t="s">
         <v>51</v>
@@ -7421,7 +7451,7 @@
         <v>55</v>
       </c>
       <c r="J39" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K39" s="28"/>
     </row>
@@ -7431,10 +7461,10 @@
         <v>448</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="E40" s="28" t="s">
         <v>51</v>
@@ -7452,7 +7482,7 @@
         <v>55</v>
       </c>
       <c r="J40" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K40" s="28"/>
     </row>
@@ -7462,10 +7492,10 @@
         <v>449</v>
       </c>
       <c r="C41" s="28" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="E41" s="28" t="s">
         <v>51</v>
@@ -7483,7 +7513,7 @@
         <v>55</v>
       </c>
       <c r="J41" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K41" s="28"/>
     </row>
@@ -7493,10 +7523,10 @@
         <v>454</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D42" s="31" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="E42" s="28" t="s">
         <v>51</v>
@@ -7514,7 +7544,7 @@
         <v>55</v>
       </c>
       <c r="J42" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K42" s="28"/>
     </row>
@@ -7524,10 +7554,10 @@
         <v>457</v>
       </c>
       <c r="C43" s="28" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D43" s="31" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="E43" s="28" t="s">
         <v>51</v>
@@ -7545,7 +7575,7 @@
         <v>55</v>
       </c>
       <c r="J43" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K43" s="28"/>
     </row>
@@ -7555,10 +7585,10 @@
         <v>458</v>
       </c>
       <c r="C44" s="28" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="E44" s="28" t="s">
         <v>51</v>
@@ -7576,7 +7606,7 @@
         <v>55</v>
       </c>
       <c r="J44" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K44" s="28"/>
     </row>
@@ -7586,10 +7616,10 @@
         <v>459</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D45" s="31" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E45" s="28" t="s">
         <v>51</v>
@@ -7607,7 +7637,7 @@
         <v>55</v>
       </c>
       <c r="J45" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K45" s="28"/>
     </row>
@@ -7617,10 +7647,10 @@
         <v>455</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D46" s="31" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E46" s="28" t="s">
         <v>241</v>
@@ -7650,10 +7680,10 @@
         <v>460</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E47" s="28" t="s">
         <v>51</v>
@@ -7671,7 +7701,7 @@
         <v>55</v>
       </c>
       <c r="J47" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K47" s="28"/>
     </row>
@@ -7681,10 +7711,10 @@
         <v>461</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D48" s="31" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E48" s="28" t="s">
         <v>51</v>
@@ -7702,7 +7732,7 @@
         <v>55</v>
       </c>
       <c r="J48" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K48" s="28"/>
     </row>
@@ -7712,10 +7742,10 @@
         <v>462</v>
       </c>
       <c r="C49" s="28" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E49" s="28" t="s">
         <v>51</v>
@@ -7733,7 +7763,7 @@
         <v>55</v>
       </c>
       <c r="J49" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K49" s="28"/>
     </row>
@@ -7743,10 +7773,10 @@
         <v>463</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D50" s="31" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="E50" s="28" t="s">
         <v>51</v>
@@ -7764,7 +7794,7 @@
         <v>55</v>
       </c>
       <c r="J50" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K50" s="28"/>
     </row>
@@ -7774,10 +7804,10 @@
         <v>464</v>
       </c>
       <c r="C51" s="28" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D51" s="31" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="E51" s="28" t="s">
         <v>51</v>
@@ -7795,7 +7825,7 @@
         <v>55</v>
       </c>
       <c r="J51" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K51" s="28"/>
     </row>
@@ -7805,10 +7835,10 @@
         <v>465</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D52" s="31" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="E52" s="28" t="s">
         <v>51</v>
@@ -7826,7 +7856,7 @@
         <v>55</v>
       </c>
       <c r="J52" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K52" s="28"/>
     </row>
@@ -7836,10 +7866,10 @@
         <v>456</v>
       </c>
       <c r="C53" s="28" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D53" s="31" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E53" s="28" t="s">
         <v>241</v>
@@ -7869,10 +7899,10 @@
         <v>466</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D54" s="31" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="E54" s="28" t="s">
         <v>51</v>
@@ -7890,7 +7920,7 @@
         <v>55</v>
       </c>
       <c r="J54" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K54" s="28"/>
     </row>
@@ -7900,10 +7930,10 @@
         <v>467</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D55" s="31" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="E55" s="28" t="s">
         <v>51</v>
@@ -7921,7 +7951,7 @@
         <v>55</v>
       </c>
       <c r="J55" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K55" s="28"/>
     </row>
@@ -7931,10 +7961,10 @@
         <v>468</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D56" s="31" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="E56" s="28" t="s">
         <v>51</v>
@@ -7952,7 +7982,7 @@
         <v>55</v>
       </c>
       <c r="J56" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K56" s="28"/>
     </row>
@@ -7962,10 +7992,10 @@
         <v>469</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D57" s="31" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E57" s="28" t="s">
         <v>51</v>
@@ -7983,7 +8013,7 @@
         <v>55</v>
       </c>
       <c r="J57" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K57" s="28"/>
     </row>
@@ -7993,10 +8023,10 @@
         <v>470</v>
       </c>
       <c r="C58" s="28" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D58" s="31" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E58" s="28" t="s">
         <v>51</v>
@@ -8014,7 +8044,7 @@
         <v>55</v>
       </c>
       <c r="J58" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K58" s="28"/>
     </row>
@@ -8024,10 +8054,10 @@
         <v>471</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D59" s="31" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E59" s="28" t="s">
         <v>51</v>
@@ -8045,7 +8075,7 @@
         <v>55</v>
       </c>
       <c r="J59" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K59" s="28"/>
     </row>
@@ -8055,10 +8085,10 @@
         <v>477</v>
       </c>
       <c r="C60" s="28" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D60" s="31" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="E60" s="28" t="s">
         <v>241</v>
@@ -8088,10 +8118,10 @@
         <v>474</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D61" s="31" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E61" s="28" t="s">
         <v>241</v>
@@ -8121,10 +8151,10 @@
         <v>472</v>
       </c>
       <c r="C62" s="28" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D62" s="31" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="E62" s="28" t="s">
         <v>51</v>
@@ -8142,7 +8172,7 @@
         <v>55</v>
       </c>
       <c r="J62" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K62" s="28"/>
     </row>
@@ -8152,10 +8182,10 @@
         <v>475</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D63" s="31" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="E63" s="28" t="s">
         <v>241</v>
@@ -8185,10 +8215,10 @@
         <v>478</v>
       </c>
       <c r="C64" s="28" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D64" s="31" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="E64" s="28" t="s">
         <v>51</v>
@@ -8206,7 +8236,7 @@
         <v>55</v>
       </c>
       <c r="J64" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K64" s="28"/>
     </row>
@@ -8216,28 +8246,28 @@
         <v>473</v>
       </c>
       <c r="C65" s="28" t="s">
+        <v>516</v>
+      </c>
+      <c r="D65" s="31" t="s">
+        <v>664</v>
+      </c>
+      <c r="E65" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F65" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G65" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H65" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I65" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J65" s="28" t="s">
         <v>517</v>
-      </c>
-      <c r="D65" s="31" t="s">
-        <v>668</v>
-      </c>
-      <c r="E65" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="F65" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="G65" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="H65" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="I65" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="J65" s="28" t="s">
-        <v>518</v>
       </c>
       <c r="K65" s="28"/>
     </row>
@@ -8268,7 +8298,7 @@
         <v>55</v>
       </c>
       <c r="J66" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K66" s="28"/>
     </row>
@@ -8362,8 +8392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:K2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -8429,7 +8459,7 @@
         <v>19</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -8443,10 +8473,10 @@
         <v>220</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>519</v>
+        <v>681</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>52</v>
@@ -8461,7 +8491,7 @@
         <v>55</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>232</v>
@@ -8475,7 +8505,7 @@
         <v>221</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>80</v>
@@ -8507,7 +8537,7 @@
         <v>33</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>32</v>
@@ -8536,7 +8566,7 @@
         <v>35</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>34</v>
@@ -8583,7 +8613,7 @@
         <v>55</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -8594,7 +8624,7 @@
         <v>227</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>228</v>
@@ -8623,7 +8653,7 @@
         <v>230</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>231</v>
@@ -8655,7 +8685,7 @@
         <v>234</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>235</v>
@@ -8684,7 +8714,7 @@
         <v>240</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>241</v>
@@ -8716,7 +8746,7 @@
         <v>408</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>51</v>
@@ -8734,7 +8764,7 @@
         <v>55</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -8745,7 +8775,7 @@
         <v>479</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>34</v>
@@ -8774,7 +8804,7 @@
         <v>409</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>51</v>
@@ -8792,7 +8822,7 @@
         <v>55</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -8803,7 +8833,7 @@
         <v>480</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>34</v>
@@ -8832,7 +8862,7 @@
         <v>410</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>51</v>
@@ -8850,7 +8880,7 @@
         <v>55</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
@@ -8861,7 +8891,7 @@
         <v>411</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>51</v>
@@ -8879,7 +8909,7 @@
         <v>55</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
@@ -8890,7 +8920,7 @@
         <v>412</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>51</v>
@@ -8908,7 +8938,7 @@
         <v>55</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
@@ -8919,7 +8949,7 @@
         <v>413</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>51</v>
@@ -8937,7 +8967,7 @@
         <v>55</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
@@ -8948,7 +8978,7 @@
         <v>414</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>51</v>
@@ -8966,7 +8996,7 @@
         <v>55</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
@@ -8977,7 +9007,7 @@
         <v>481</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>34</v>
@@ -9006,7 +9036,7 @@
         <v>451</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>51</v>
@@ -9024,7 +9054,7 @@
         <v>55</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
@@ -9035,7 +9065,7 @@
         <v>482</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>34</v>
@@ -9064,7 +9094,7 @@
         <v>453</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>51</v>
@@ -9082,7 +9112,7 @@
         <v>55</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
@@ -9093,7 +9123,7 @@
         <v>415</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>51</v>
@@ -9111,7 +9141,7 @@
         <v>55</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
@@ -9122,7 +9152,7 @@
         <v>416</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>51</v>
@@ -9140,7 +9170,7 @@
         <v>55</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
@@ -9151,7 +9181,7 @@
         <v>431</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>51</v>
@@ -9169,7 +9199,7 @@
         <v>55</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
@@ -9180,7 +9210,7 @@
         <v>436</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>51</v>
@@ -9198,7 +9228,7 @@
         <v>55</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
@@ -9209,7 +9239,7 @@
         <v>437</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>51</v>
@@ -9227,7 +9257,7 @@
         <v>55</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
@@ -9238,7 +9268,7 @@
         <v>438</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>51</v>
@@ -9256,7 +9286,7 @@
         <v>55</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
@@ -9267,7 +9297,7 @@
         <v>439</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>51</v>
@@ -9285,7 +9315,7 @@
         <v>55</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.2">
@@ -9293,10 +9323,10 @@
         <v>440</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>51</v>
@@ -9314,7 +9344,7 @@
         <v>55</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.2">
@@ -9322,10 +9352,10 @@
         <v>441</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>51</v>
@@ -9343,7 +9373,7 @@
         <v>55</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.2">
@@ -9351,10 +9381,10 @@
         <v>442</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>51</v>
@@ -9372,7 +9402,7 @@
         <v>55</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
@@ -9380,10 +9410,10 @@
         <v>443</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>51</v>
@@ -9401,7 +9431,7 @@
         <v>55</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.2">
@@ -9409,10 +9439,10 @@
         <v>444</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>51</v>
@@ -9430,7 +9460,7 @@
         <v>55</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.2">
@@ -9438,10 +9468,10 @@
         <v>445</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>51</v>
@@ -9459,7 +9489,7 @@
         <v>55</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
@@ -9467,10 +9497,10 @@
         <v>446</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>51</v>
@@ -9488,7 +9518,7 @@
         <v>55</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
@@ -9496,10 +9526,10 @@
         <v>447</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>51</v>
@@ -9517,7 +9547,7 @@
         <v>55</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.2">
@@ -9525,10 +9555,10 @@
         <v>448</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>51</v>
@@ -9546,7 +9576,7 @@
         <v>55</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.2">
@@ -9554,10 +9584,10 @@
         <v>449</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>51</v>
@@ -9575,7 +9605,7 @@
         <v>55</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.2">
@@ -9583,10 +9613,10 @@
         <v>454</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>51</v>
@@ -9604,7 +9634,7 @@
         <v>55</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.2">
@@ -9612,10 +9642,10 @@
         <v>457</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>51</v>
@@ -9633,7 +9663,7 @@
         <v>55</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.2">
@@ -9641,10 +9671,10 @@
         <v>458</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>51</v>
@@ -9662,7 +9692,7 @@
         <v>55</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.2">
@@ -9670,10 +9700,10 @@
         <v>459</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>51</v>
@@ -9691,7 +9721,7 @@
         <v>55</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.2">
@@ -9699,10 +9729,10 @@
         <v>455</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>241</v>
@@ -9731,10 +9761,10 @@
         <v>460</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>51</v>
@@ -9752,7 +9782,7 @@
         <v>55</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.2">
@@ -9760,10 +9790,10 @@
         <v>461</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>51</v>
@@ -9781,7 +9811,7 @@
         <v>55</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.2">
@@ -9789,10 +9819,10 @@
         <v>462</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>51</v>
@@ -9810,7 +9840,7 @@
         <v>55</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.2">
@@ -9818,10 +9848,10 @@
         <v>463</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>51</v>
@@ -9839,7 +9869,7 @@
         <v>55</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.2">
@@ -9847,10 +9877,10 @@
         <v>464</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>51</v>
@@ -9868,7 +9898,7 @@
         <v>55</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.2">
@@ -9876,10 +9906,10 @@
         <v>465</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>51</v>
@@ -9897,7 +9927,7 @@
         <v>55</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.2">
@@ -9905,10 +9935,10 @@
         <v>456</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>241</v>
@@ -9937,10 +9967,10 @@
         <v>466</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>51</v>
@@ -9958,7 +9988,7 @@
         <v>55</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.2">
@@ -9966,10 +9996,10 @@
         <v>467</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>51</v>
@@ -9987,7 +10017,7 @@
         <v>55</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.2">
@@ -9995,10 +10025,10 @@
         <v>468</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>51</v>
@@ -10016,7 +10046,7 @@
         <v>55</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.2">
@@ -10024,10 +10054,10 @@
         <v>469</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>51</v>
@@ -10045,7 +10075,7 @@
         <v>55</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.2">
@@ -10053,10 +10083,10 @@
         <v>470</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>51</v>
@@ -10074,7 +10104,7 @@
         <v>55</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.2">
@@ -10082,10 +10112,10 @@
         <v>471</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>51</v>
@@ -10103,7 +10133,7 @@
         <v>55</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.2">
@@ -10111,10 +10141,10 @@
         <v>477</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>241</v>
@@ -10143,10 +10173,10 @@
         <v>474</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>241</v>
@@ -10175,10 +10205,10 @@
         <v>472</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>51</v>
@@ -10196,7 +10226,7 @@
         <v>55</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.2">
@@ -10204,10 +10234,10 @@
         <v>475</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>241</v>
@@ -10236,10 +10266,10 @@
         <v>478</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>51</v>
@@ -10257,7 +10287,7 @@
         <v>55</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.2">
@@ -10265,28 +10295,28 @@
         <v>473</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="D65" s="24" t="s">
+        <v>578</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J65" s="1" t="s">
         <v>517</v>
-      </c>
-      <c r="D65" s="24" t="s">
-        <v>580</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -10366,8 +10396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03FDA06-9F92-49C6-8A00-2EE1AEC24A99}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10413,16 +10443,16 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="C2" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -10444,9 +10474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F2B47B-56D5-4D18-829C-61064082089E}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10454,6 +10482,7 @@
     <col min="2" max="2" width="10" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -10472,41 +10501,41 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C2" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D2" s="27" t="str">
         <f>E2</f>
         <v>Rudra_2806</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C3" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C4" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D4" s="6" t="str">
         <f>emailCred!A2</f>
-        <v>Spidey@1990</v>
+        <v>Thanos@1990</v>
       </c>
     </row>
   </sheetData>
@@ -10520,7 +10549,7 @@
   <dimension ref="A1:AMK3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10618,50 +10647,137 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AMK3"/>
+  <dimension ref="A1:AMK9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="102.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="1025" width="8.42578125" collapsed="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="56.7109375" style="34" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="38.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="59.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="1025" width="8.42578125" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="34" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>483</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="E1" t="s">
+        <v>679</v>
+      </c>
+      <c r="F1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="str">
+        <f>A3</f>
+        <v>Thanos@1990</v>
+      </c>
+      <c r="B2" s="34" t="str">
+        <f>E2</f>
+        <v>shailendra.rajawat@nextgenclearing.com</v>
+      </c>
+      <c r="C2" s="34" t="str">
+        <f>E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E5</f>
+        <v>shailendra.rajawat@nextgenclearing.com,prafull.barve@nextgenclearing.com,ivana.jandrecic@nextgenclearing.com,dario.curjak@nextgenclearing.com</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>682</v>
+      </c>
+      <c r="C3" s="34" t="str">
+        <f>E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E6&amp;","&amp;E7</f>
+        <v>shailendra.rajawat@nextgenclearing.com,prafull.barve@nextgenclearing.com,ivana.jandrecic@nextgenclearing.com,aarjav.thakore@nextgenclearing.com,micky.priya@nextgenclearing.com</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C3" s="5"/>
+      <c r="F3" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="F4" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="F5" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="F6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="F7" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="F8" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="F9" t="s">
+        <v>678</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="C2" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="Thanos@1990" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" display="shailendra.rajawat@nextgenclearing.com" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{E79489D9-2090-40A0-A045-D537065B7547}"/>
+    <hyperlink ref="E3" r:id="rId4" xr:uid="{151A16B0-D4CF-4060-9FC2-B663C0C66EB9}"/>
+    <hyperlink ref="E4" r:id="rId5" xr:uid="{B8DAAD96-1BED-45B8-AC9F-50A507FB7460}"/>
+    <hyperlink ref="E5" r:id="rId6" xr:uid="{AED63D9F-CCE4-44C9-B17C-D6C2E46BE679}"/>
+    <hyperlink ref="E6" r:id="rId7" xr:uid="{A7DA2543-1C8C-4B75-A1B0-F70E000F582F}"/>
+    <hyperlink ref="E7" r:id="rId8" xr:uid="{5A109B21-233F-4CDD-AFEB-688FECD0D94C}"/>
+    <hyperlink ref="E8" r:id="rId9" xr:uid="{60AF829D-781E-468D-9683-86836D64173A}"/>
+    <hyperlink ref="E9" r:id="rId10" xr:uid="{DAA6F6D8-EBEF-48D7-8C04-51636A966F9E}"/>
+    <hyperlink ref="A3" r:id="rId11" xr:uid="{845AE483-01AA-413A-85B9-23469542E415}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shailendra.rajawat\git\iotronApex5\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961F7CFA-CCCB-4DE2-B3A8-A627BC191C0D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B45551C-A8C7-44F9-8223-FFC686FEF350}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="12825" tabRatio="988" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="12825" tabRatio="988" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UAT" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1945" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1955" uniqueCount="691">
   <si>
     <t>url</t>
   </si>
@@ -1626,9 +1626,6 @@
     <t>Auto$120219123532</t>
   </si>
   <si>
-    <t>Auto$120219123549</t>
-  </si>
-  <si>
     <t>Auto$120219123606</t>
   </si>
   <si>
@@ -1647,9 +1644,6 @@
     <t>Auto$120219123714</t>
   </si>
   <si>
-    <t>Auto$120219123727</t>
-  </si>
-  <si>
     <t>Auto$120219123745</t>
   </si>
   <si>
@@ -1800,9 +1794,6 @@
     <t>NEXTGEN\micky.priya</t>
   </si>
   <si>
-    <t>Rudra_2806</t>
-  </si>
-  <si>
     <t>ivana</t>
   </si>
   <si>
@@ -2046,9 +2037,6 @@
     <t>Auto$120419120835</t>
   </si>
   <si>
-    <t>Auto$170419115557</t>
-  </si>
-  <si>
     <t>micky.priya</t>
   </si>
   <si>
@@ -2101,6 +2089,39 @@
   </si>
   <si>
     <t>WAPTRQ6851</t>
+  </si>
+  <si>
+    <t>NGC-SS</t>
+  </si>
+  <si>
+    <t>shweta.singh</t>
+  </si>
+  <si>
+    <t>Complex$890</t>
+  </si>
+  <si>
+    <t>Rudra_2807</t>
+  </si>
+  <si>
+    <t>Auto$250619142257</t>
+  </si>
+  <si>
+    <t>Auto$250619142322</t>
+  </si>
+  <si>
+    <t>dario.curjak</t>
+  </si>
+  <si>
+    <t>Atreid!369</t>
+  </si>
+  <si>
+    <t>NGC-DC Muser</t>
+  </si>
+  <si>
+    <t>DARIO</t>
+  </si>
+  <si>
+    <t>CURJAK</t>
   </si>
 </sst>
 </file>
@@ -2110,7 +2131,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dddd&quot;, &quot;mmmm\ dd&quot;, &quot;yyyy"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2240,6 +2261,12 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2268,7 +2295,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2333,6 +2360,9 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6147,19 +6177,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C1" t="s">
+        <v>588</v>
+      </c>
+      <c r="D1" t="s">
         <v>589</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>590</v>
-      </c>
-      <c r="C1" t="s">
-        <v>591</v>
-      </c>
-      <c r="D1" t="s">
-        <v>592</v>
-      </c>
-      <c r="E1" t="s">
-        <v>593</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -6167,42 +6197,42 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B2" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C2">
         <v>1521</v>
       </c>
       <c r="D2" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E2" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B3" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C3">
         <v>1521</v>
       </c>
       <c r="D3" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="E3" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
   </sheetData>
@@ -6215,7 +6245,7 @@
   <dimension ref="A1:AMK67"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6279,7 +6309,7 @@
         <v>217</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="E2" s="28" t="s">
         <v>51</v>
@@ -6308,10 +6338,10 @@
         <v>220</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F3" s="28" t="s">
         <v>52</v>
@@ -6326,7 +6356,7 @@
         <v>55</v>
       </c>
       <c r="J3" s="28" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="K3" s="28" t="s">
         <v>232</v>
@@ -6341,7 +6371,7 @@
         <v>221</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E4" s="28" t="s">
         <v>80</v>
@@ -6372,7 +6402,7 @@
         <v>33</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="E5" s="28" t="s">
         <v>32</v>
@@ -6403,7 +6433,7 @@
         <v>35</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E6" s="28" t="s">
         <v>34</v>
@@ -6434,7 +6464,7 @@
         <v>39</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E7" s="28" t="s">
         <v>51</v>
@@ -6465,7 +6495,7 @@
         <v>227</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="E8" s="28" t="s">
         <v>228</v>
@@ -6496,7 +6526,7 @@
         <v>230</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E9" s="28" t="s">
         <v>231</v>
@@ -6529,7 +6559,7 @@
         <v>234</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E10" s="28" t="s">
         <v>235</v>
@@ -6560,7 +6590,7 @@
         <v>240</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="E11" s="28" t="s">
         <v>241</v>
@@ -6593,7 +6623,7 @@
         <v>408</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E12" s="28" t="s">
         <v>51</v>
@@ -6624,7 +6654,7 @@
         <v>479</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E13" s="28" t="s">
         <v>34</v>
@@ -6655,7 +6685,7 @@
         <v>409</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="E14" s="28" t="s">
         <v>51</v>
@@ -6686,7 +6716,7 @@
         <v>480</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E15" s="28" t="s">
         <v>34</v>
@@ -6720,7 +6750,7 @@
         <v>410</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="E16" s="28" t="s">
         <v>51</v>
@@ -6751,7 +6781,7 @@
         <v>411</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E17" s="28" t="s">
         <v>51</v>
@@ -6782,7 +6812,7 @@
         <v>412</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E18" s="28" t="s">
         <v>51</v>
@@ -6813,7 +6843,7 @@
         <v>413</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="E19" s="28" t="s">
         <v>51</v>
@@ -6844,7 +6874,7 @@
         <v>414</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="E20" s="28" t="s">
         <v>51</v>
@@ -6875,7 +6905,7 @@
         <v>481</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="E21" s="28" t="s">
         <v>34</v>
@@ -6906,7 +6936,7 @@
         <v>451</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="E22" s="28" t="s">
         <v>51</v>
@@ -6937,7 +6967,7 @@
         <v>482</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="E23" s="28" t="s">
         <v>34</v>
@@ -6968,7 +6998,7 @@
         <v>453</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="E24" s="28" t="s">
         <v>51</v>
@@ -6999,7 +7029,7 @@
         <v>415</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E25" s="28" t="s">
         <v>51</v>
@@ -7030,7 +7060,7 @@
         <v>416</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="E26" s="28" t="s">
         <v>51</v>
@@ -7061,7 +7091,7 @@
         <v>431</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="E27" s="28" t="s">
         <v>51</v>
@@ -7092,7 +7122,7 @@
         <v>436</v>
       </c>
       <c r="D28" s="31" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="E28" s="28" t="s">
         <v>51</v>
@@ -7123,7 +7153,7 @@
         <v>437</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="E29" s="28" t="s">
         <v>51</v>
@@ -7154,7 +7184,7 @@
         <v>438</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="E30" s="28" t="s">
         <v>51</v>
@@ -7185,7 +7215,7 @@
         <v>439</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="E31" s="28" t="s">
         <v>51</v>
@@ -7216,7 +7246,7 @@
         <v>483</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="E32" s="28" t="s">
         <v>51</v>
@@ -7247,7 +7277,7 @@
         <v>484</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="E33" s="28" t="s">
         <v>51</v>
@@ -7278,7 +7308,7 @@
         <v>485</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E34" s="28" t="s">
         <v>51</v>
@@ -7309,7 +7339,7 @@
         <v>486</v>
       </c>
       <c r="D35" s="31" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="E35" s="28" t="s">
         <v>51</v>
@@ -7340,7 +7370,7 @@
         <v>487</v>
       </c>
       <c r="D36" s="31" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="E36" s="28" t="s">
         <v>51</v>
@@ -7371,7 +7401,7 @@
         <v>488</v>
       </c>
       <c r="D37" s="31" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="E37" s="28" t="s">
         <v>51</v>
@@ -7402,7 +7432,7 @@
         <v>489</v>
       </c>
       <c r="D38" s="31" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="E38" s="28" t="s">
         <v>51</v>
@@ -7433,7 +7463,7 @@
         <v>490</v>
       </c>
       <c r="D39" s="31" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E39" s="28" t="s">
         <v>51</v>
@@ -7464,7 +7494,7 @@
         <v>491</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E40" s="28" t="s">
         <v>51</v>
@@ -7495,7 +7525,7 @@
         <v>492</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E41" s="28" t="s">
         <v>51</v>
@@ -7526,7 +7556,7 @@
         <v>493</v>
       </c>
       <c r="D42" s="31" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="E42" s="28" t="s">
         <v>51</v>
@@ -7557,7 +7587,7 @@
         <v>494</v>
       </c>
       <c r="D43" s="31" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="E43" s="28" t="s">
         <v>51</v>
@@ -7588,7 +7618,7 @@
         <v>495</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="E44" s="28" t="s">
         <v>51</v>
@@ -7619,7 +7649,7 @@
         <v>496</v>
       </c>
       <c r="D45" s="31" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="E45" s="28" t="s">
         <v>51</v>
@@ -7650,7 +7680,7 @@
         <v>497</v>
       </c>
       <c r="D46" s="31" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="E46" s="28" t="s">
         <v>241</v>
@@ -7683,7 +7713,7 @@
         <v>498</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E47" s="28" t="s">
         <v>51</v>
@@ -7714,7 +7744,7 @@
         <v>499</v>
       </c>
       <c r="D48" s="31" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E48" s="28" t="s">
         <v>51</v>
@@ -7745,7 +7775,7 @@
         <v>500</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="E49" s="28" t="s">
         <v>51</v>
@@ -7776,7 +7806,7 @@
         <v>501</v>
       </c>
       <c r="D50" s="31" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="E50" s="28" t="s">
         <v>51</v>
@@ -7807,7 +7837,7 @@
         <v>502</v>
       </c>
       <c r="D51" s="31" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="E51" s="28" t="s">
         <v>51</v>
@@ -7838,7 +7868,7 @@
         <v>503</v>
       </c>
       <c r="D52" s="31" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="E52" s="28" t="s">
         <v>51</v>
@@ -7869,7 +7899,7 @@
         <v>504</v>
       </c>
       <c r="D53" s="31" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="E53" s="28" t="s">
         <v>241</v>
@@ -7902,7 +7932,7 @@
         <v>505</v>
       </c>
       <c r="D54" s="31" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="E54" s="28" t="s">
         <v>51</v>
@@ -7933,7 +7963,7 @@
         <v>506</v>
       </c>
       <c r="D55" s="31" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="E55" s="28" t="s">
         <v>51</v>
@@ -7964,7 +7994,7 @@
         <v>507</v>
       </c>
       <c r="D56" s="31" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="E56" s="28" t="s">
         <v>51</v>
@@ -7995,7 +8025,7 @@
         <v>508</v>
       </c>
       <c r="D57" s="31" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="E57" s="28" t="s">
         <v>51</v>
@@ -8026,7 +8056,7 @@
         <v>509</v>
       </c>
       <c r="D58" s="31" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="E58" s="28" t="s">
         <v>51</v>
@@ -8057,7 +8087,7 @@
         <v>510</v>
       </c>
       <c r="D59" s="31" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="E59" s="28" t="s">
         <v>51</v>
@@ -8088,7 +8118,7 @@
         <v>511</v>
       </c>
       <c r="D60" s="31" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="E60" s="28" t="s">
         <v>241</v>
@@ -8121,7 +8151,7 @@
         <v>512</v>
       </c>
       <c r="D61" s="31" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="E61" s="28" t="s">
         <v>241</v>
@@ -8154,7 +8184,7 @@
         <v>513</v>
       </c>
       <c r="D62" s="31" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="E62" s="28" t="s">
         <v>51</v>
@@ -8185,7 +8215,7 @@
         <v>514</v>
       </c>
       <c r="D63" s="31" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="E63" s="28" t="s">
         <v>241</v>
@@ -8218,7 +8248,7 @@
         <v>515</v>
       </c>
       <c r="D64" s="31" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E64" s="28" t="s">
         <v>51</v>
@@ -8249,7 +8279,7 @@
         <v>516</v>
       </c>
       <c r="D65" s="31" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E65" s="28" t="s">
         <v>51</v>
@@ -8390,10 +8420,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -8459,7 +8489,7 @@
         <v>19</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>665</v>
+        <v>685</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -8473,10 +8503,10 @@
         <v>220</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>52</v>
@@ -8491,7 +8521,7 @@
         <v>55</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>232</v>
@@ -8587,7 +8617,10 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>689</v>
+      </c>
       <c r="B7" s="26" t="s">
         <v>41</v>
       </c>
@@ -8616,7 +8649,10 @@
         <v>517</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>690</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>226</v>
       </c>
@@ -8745,8 +8781,8 @@
       <c r="C12" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="D12" s="24" t="s">
-        <v>525</v>
+      <c r="D12" s="6" t="s">
+        <v>222</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>51</v>
@@ -8775,7 +8811,7 @@
         <v>479</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>34</v>
@@ -8804,7 +8840,7 @@
         <v>409</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>51</v>
@@ -8833,7 +8869,7 @@
         <v>480</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>34</v>
@@ -8862,7 +8898,7 @@
         <v>410</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>51</v>
@@ -8891,7 +8927,7 @@
         <v>411</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>51</v>
@@ -8920,7 +8956,7 @@
         <v>412</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>51</v>
@@ -8949,7 +8985,7 @@
         <v>413</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>532</v>
+        <v>684</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>51</v>
@@ -8978,7 +9014,7 @@
         <v>414</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>51</v>
@@ -9007,7 +9043,7 @@
         <v>481</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>34</v>
@@ -9036,7 +9072,7 @@
         <v>451</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>51</v>
@@ -9065,7 +9101,7 @@
         <v>482</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>34</v>
@@ -9094,7 +9130,7 @@
         <v>453</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>51</v>
@@ -9123,7 +9159,7 @@
         <v>415</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>51</v>
@@ -9152,7 +9188,7 @@
         <v>416</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>51</v>
@@ -9181,7 +9217,7 @@
         <v>431</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>51</v>
@@ -9210,7 +9246,7 @@
         <v>436</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>51</v>
@@ -9239,7 +9275,7 @@
         <v>437</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>51</v>
@@ -9268,7 +9304,7 @@
         <v>438</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>51</v>
@@ -9297,7 +9333,7 @@
         <v>439</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>51</v>
@@ -9326,7 +9362,7 @@
         <v>483</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>51</v>
@@ -9355,7 +9391,7 @@
         <v>484</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>51</v>
@@ -9384,7 +9420,7 @@
         <v>485</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>51</v>
@@ -9413,7 +9449,7 @@
         <v>486</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>51</v>
@@ -9442,7 +9478,7 @@
         <v>487</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>51</v>
@@ -9471,7 +9507,7 @@
         <v>488</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>51</v>
@@ -9500,7 +9536,7 @@
         <v>489</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>51</v>
@@ -9529,7 +9565,7 @@
         <v>490</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>51</v>
@@ -9558,7 +9594,7 @@
         <v>491</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>51</v>
@@ -9587,7 +9623,7 @@
         <v>492</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>51</v>
@@ -9616,7 +9652,7 @@
         <v>493</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>51</v>
@@ -9645,7 +9681,7 @@
         <v>494</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>51</v>
@@ -9674,7 +9710,7 @@
         <v>495</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>51</v>
@@ -9703,7 +9739,7 @@
         <v>496</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>51</v>
@@ -9732,7 +9768,7 @@
         <v>497</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>241</v>
@@ -9764,7 +9800,7 @@
         <v>498</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>51</v>
@@ -9793,7 +9829,7 @@
         <v>499</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>51</v>
@@ -9822,7 +9858,7 @@
         <v>500</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>51</v>
@@ -9851,7 +9887,7 @@
         <v>501</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>51</v>
@@ -9880,7 +9916,7 @@
         <v>502</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>51</v>
@@ -9909,7 +9945,7 @@
         <v>503</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>51</v>
@@ -9938,7 +9974,7 @@
         <v>504</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>241</v>
@@ -9970,7 +10006,7 @@
         <v>505</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>51</v>
@@ -9999,7 +10035,7 @@
         <v>506</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>51</v>
@@ -10028,7 +10064,7 @@
         <v>507</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>51</v>
@@ -10057,7 +10093,7 @@
         <v>508</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>51</v>
@@ -10086,7 +10122,7 @@
         <v>509</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>51</v>
@@ -10115,7 +10151,7 @@
         <v>510</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>51</v>
@@ -10144,7 +10180,7 @@
         <v>511</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>241</v>
@@ -10176,7 +10212,7 @@
         <v>512</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>241</v>
@@ -10208,7 +10244,7 @@
         <v>513</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>51</v>
@@ -10237,7 +10273,7 @@
         <v>514</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>241</v>
@@ -10269,7 +10305,7 @@
         <v>515</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>51</v>
@@ -10298,7 +10334,7 @@
         <v>516</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>51</v>
@@ -10317,6 +10353,17 @@
       </c>
       <c r="J65" s="1" t="s">
         <v>517</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="D66" s="24" t="s">
+        <v>687</v>
       </c>
     </row>
   </sheetData>
@@ -10394,16 +10441,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03FDA06-9F92-49C6-8A00-2EE1AEC24A99}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="67" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -10443,16 +10490,16 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="C2" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -10462,11 +10509,23 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="C3" t="s">
+        <v>681</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>682</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{0F309FF0-FE27-48F0-AA30-A9D16220619B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10474,7 +10533,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F2B47B-56D5-4D18-829C-61064082089E}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10482,7 +10543,7 @@
     <col min="2" max="2" width="10" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -10501,37 +10562,37 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D2" s="27" t="str">
         <f>E2</f>
-        <v>Rudra_2806</v>
+        <v>Rudra_2807</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>583</v>
+        <v>683</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C3" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C4" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D4" s="6" t="str">
         <f>emailCred!A2</f>
@@ -10647,10 +10708,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AMK9"/>
+  <dimension ref="A1:AMK10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C1" sqref="C1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10675,13 +10736,13 @@
         <v>243</v>
       </c>
       <c r="E1" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="F1" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="str">
         <f>A3</f>
         <v>Thanos@1990</v>
@@ -10691,78 +10752,86 @@
         <v>shailendra.rajawat@nextgenclearing.com</v>
       </c>
       <c r="C2" s="34" t="str">
-        <f>E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E5</f>
-        <v>shailendra.rajawat@nextgenclearing.com,prafull.barve@nextgenclearing.com,ivana.jandrecic@nextgenclearing.com,dario.curjak@nextgenclearing.com</v>
+        <f>E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E5&amp;","&amp;E10</f>
+        <v>shailendra.rajawat@nextgenclearing.com,prafull.barve@nextgenclearing.com,ivana.jandrecic@nextgenclearing.com,dario.curjak@nextgenclearing.com,dario.curjak@nextgenclearing.com</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C3" s="34" t="str">
-        <f>E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E6&amp;","&amp;E7</f>
-        <v>shailendra.rajawat@nextgenclearing.com,prafull.barve@nextgenclearing.com,ivana.jandrecic@nextgenclearing.com,aarjav.thakore@nextgenclearing.com,micky.priya@nextgenclearing.com</v>
+        <f>E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E6&amp;","&amp;E7&amp;","&amp;E10</f>
+        <v>shailendra.rajawat@nextgenclearing.com,prafull.barve@nextgenclearing.com,ivana.jandrecic@nextgenclearing.com,aarjav.thakore@nextgenclearing.com,micky.priya@nextgenclearing.com,dario.curjak@nextgenclearing.com</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="F3" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E4" s="5" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="F4" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="F5" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E6" s="5" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="F6" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E7" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="F7" t="s">
         <v>674</v>
-      </c>
-      <c r="F7" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E8" s="5" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="F8" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E9" s="5" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="F9" t="s">
-        <v>678</v>
+        <v>674</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="F10" t="s">
+        <v>673</v>
       </c>
     </row>
   </sheetData>
@@ -10778,6 +10847,7 @@
     <hyperlink ref="E8" r:id="rId9" xr:uid="{60AF829D-781E-468D-9683-86836D64173A}"/>
     <hyperlink ref="E9" r:id="rId10" xr:uid="{DAA6F6D8-EBEF-48D7-8C04-51636A966F9E}"/>
     <hyperlink ref="A3" r:id="rId11" xr:uid="{845AE483-01AA-413A-85B9-23469542E415}"/>
+    <hyperlink ref="E10" r:id="rId12" xr:uid="{9848D377-2D53-4790-9238-2C88A0280D6C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
